--- a/設計（ER図、テーブル定義書）.xlsx
+++ b/設計（ER図、テーブル定義書）.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="65">
   <si>
     <t>ER図</t>
   </si>
@@ -68,24 +68,27 @@
     <t>deleted_at</t>
   </si>
   <si>
-    <t>表1</t>
-  </si>
-  <si>
     <t>users</t>
   </si>
   <si>
-    <t>カラム名</t>
+    <t>項目名</t>
   </si>
   <si>
     <t>データ型</t>
   </si>
   <si>
+    <t>サイズ</t>
+  </si>
+  <si>
     <t>制約</t>
   </si>
   <si>
     <t>説明</t>
   </si>
   <si>
+    <t>備考</t>
+  </si>
+  <si>
     <t>INT</t>
   </si>
   <si>
@@ -128,9 +131,15 @@
     <t>ユーザーの役割（管理者/一般）</t>
   </si>
   <si>
+    <t>created_at</t>
+  </si>
+  <si>
     <t>DATETIME</t>
   </si>
   <si>
+    <t>作成日時</t>
+  </si>
+  <si>
     <t>更新日時</t>
   </si>
   <si>
@@ -158,19 +167,37 @@
     <t>収入ID（主キー）</t>
   </si>
   <si>
+    <t>expenditure_id</t>
+  </si>
+  <si>
+    <t>支出D（主キー）</t>
+  </si>
+  <si>
     <t>DATE</t>
   </si>
   <si>
     <t>日付</t>
   </si>
   <si>
+    <t>category_id</t>
+  </si>
+  <si>
     <t>FOREIGN KEY (categori)</t>
   </si>
   <si>
     <t>カテゴリID（外部キー）</t>
   </si>
   <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>摘要</t>
+  </si>
+  <si>
     <t>DECIMAL</t>
+  </si>
+  <si>
+    <t>10, 2</t>
   </si>
   <si>
     <t>金額</t>
@@ -201,9 +228,9 @@
       <name val="ヒラギノ角ゴ ProN W3"/>
     </font>
     <font>
-      <sz val="13"/>
+      <sz val="12"/>
       <color indexed="8"/>
-      <name val="Arial"/>
+      <name val="游ゴシック体 ミディアム"/>
     </font>
   </fonts>
   <fills count="2">
@@ -214,7 +241,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -389,15 +416,30 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
         <color indexed="10"/>
       </right>
       <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
         <color indexed="8"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="8"/>
       </bottom>
       <diagonal/>
@@ -412,128 +454,8 @@
       <top style="thin">
         <color indexed="8"/>
       </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
       <bottom style="thin">
         <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
@@ -543,7 +465,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -596,61 +518,40 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -674,6 +575,379 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4490</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>143537</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1244599</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>143537</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="線"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1249090" y="1233197"/>
+          <a:ext cx="1240110" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1032024</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>188105</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1241583</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>144299</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="線"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2276624" y="1024400"/>
+          <a:ext cx="209560" cy="209560"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1033497</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>148027</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1240109</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>101274</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="線"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2278097" y="1237687"/>
+          <a:ext cx="206613" cy="206613"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1214709</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>12046</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19412</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>12046</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="線"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3703909" y="1101706"/>
+          <a:ext cx="1293904" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1040675</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>112658</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1240109</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>58728</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="線"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4774475" y="948953"/>
+          <a:ext cx="199435" cy="199436"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1040675</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>10187</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1240109</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>209621</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="線"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4774475" y="1099847"/>
+          <a:ext cx="199435" cy="199435"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>246956</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>215248</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>246956</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>84525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="線"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1491556" y="1051543"/>
+          <a:ext cx="1" cy="376008"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>199914</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>128579</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>199914</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>251221</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="線"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3933714" y="964874"/>
+          <a:ext cx="1" cy="376008"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1992,6 +2266,7 @@
   <headerFooter>
     <oddFooter>&amp;C&amp;"ヒラギノ角ゴ ProN W3,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2000,392 +2275,507 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:E28"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.6" defaultRowHeight="23" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="20.3125" style="16" customWidth="1"/>
-    <col min="2" max="2" width="19.6016" style="16" customWidth="1"/>
-    <col min="3" max="3" width="34.5312" style="16" customWidth="1"/>
-    <col min="4" max="4" width="69.7891" style="16" customWidth="1"/>
-    <col min="5" max="5" width="19.6016" style="16" customWidth="1"/>
-    <col min="6" max="16384" width="19.6016" style="16" customWidth="1"/>
+    <col min="1" max="2" width="19.6016" style="16" customWidth="1"/>
+    <col min="3" max="3" width="14.7969" style="16" customWidth="1"/>
+    <col min="4" max="4" width="38.8438" style="16" customWidth="1"/>
+    <col min="5" max="5" width="43.4453" style="16" customWidth="1"/>
+    <col min="6" max="6" width="19.6016" style="16" customWidth="1"/>
+    <col min="7" max="16384" width="19.6016" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25.95" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" ht="20.65" customHeight="1">
+      <c r="A1" t="s" s="17">
         <v>18</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" ht="20.05" customHeight="1">
-      <c r="A2" t="s" s="17">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+    </row>
+    <row r="2" ht="16.95" customHeight="1">
+      <c r="A2" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="19"/>
-    </row>
-    <row r="3" ht="20.55" customHeight="1">
-      <c r="A3" t="s" s="20">
+      <c r="B2" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="B3" t="s" s="20">
+      <c r="C2" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="C3" t="s" s="20">
+      <c r="D2" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="D3" t="s" s="20">
+      <c r="E2" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="E3" s="21"/>
-    </row>
-    <row r="4" ht="21.55" customHeight="1">
-      <c r="A4" t="s" s="20">
+      <c r="F2" t="s" s="19">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" ht="16.95" customHeight="1">
+      <c r="A3" t="s" s="19">
         <v>4</v>
       </c>
-      <c r="B4" t="s" s="20">
+      <c r="B3" t="s" s="19">
+        <v>25</v>
+      </c>
+      <c r="C3" s="20"/>
+      <c r="D3" t="s" s="19">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s" s="19">
+        <v>27</v>
+      </c>
+      <c r="F3" s="20"/>
+    </row>
+    <row r="4" ht="16.95" customHeight="1">
+      <c r="A4" t="s" s="19">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s" s="19">
+        <v>29</v>
+      </c>
+      <c r="C4" s="21">
+        <v>255</v>
+      </c>
+      <c r="D4" t="s" s="19">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s" s="19">
+        <v>31</v>
+      </c>
+      <c r="F4" s="20"/>
+    </row>
+    <row r="5" ht="16.95" customHeight="1">
+      <c r="A5" t="s" s="19">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s" s="19">
+        <v>29</v>
+      </c>
+      <c r="C5" s="21">
+        <v>255</v>
+      </c>
+      <c r="D5" t="s" s="19">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s" s="19">
+        <v>34</v>
+      </c>
+      <c r="F5" s="20"/>
+    </row>
+    <row r="6" ht="16.95" customHeight="1">
+      <c r="A6" t="s" s="19">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s" s="19">
+        <v>29</v>
+      </c>
+      <c r="C6" s="21">
+        <v>255</v>
+      </c>
+      <c r="D6" t="s" s="19">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s" s="19">
+        <v>36</v>
+      </c>
+      <c r="F6" s="20"/>
+    </row>
+    <row r="7" ht="16.95" customHeight="1">
+      <c r="A7" t="s" s="19">
+        <v>37</v>
+      </c>
+      <c r="B7" t="s" s="19">
+        <v>29</v>
+      </c>
+      <c r="C7" s="21">
+        <v>50</v>
+      </c>
+      <c r="D7" t="s" s="19">
+        <v>30</v>
+      </c>
+      <c r="E7" t="s" s="19">
+        <v>38</v>
+      </c>
+      <c r="F7" s="20"/>
+    </row>
+    <row r="8" ht="16.95" customHeight="1">
+      <c r="A8" t="s" s="19">
+        <v>39</v>
+      </c>
+      <c r="B8" t="s" s="19">
+        <v>40</v>
+      </c>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" t="s" s="19">
+        <v>41</v>
+      </c>
+      <c r="F8" s="20"/>
+    </row>
+    <row r="9" ht="16.95" customHeight="1">
+      <c r="A9" t="s" s="19">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s" s="19">
+        <v>40</v>
+      </c>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" t="s" s="19">
+        <v>42</v>
+      </c>
+      <c r="F9" s="20"/>
+    </row>
+    <row r="10" ht="16.95" customHeight="1">
+      <c r="A10" t="s" s="19">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s" s="19">
+        <v>40</v>
+      </c>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" t="s" s="19">
+        <v>43</v>
+      </c>
+      <c r="F10" s="20"/>
+    </row>
+    <row r="11" ht="16.65" customHeight="1">
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="23"/>
+    </row>
+    <row r="12" ht="16.65" customHeight="1">
+      <c r="A12" t="s" s="24">
+        <v>2</v>
+      </c>
+      <c r="B12" s="25"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="26"/>
+    </row>
+    <row r="13" ht="16.95" customHeight="1">
+      <c r="A13" t="s" s="19">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s" s="19">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s" s="19">
+        <v>21</v>
+      </c>
+      <c r="D13" t="s" s="19">
+        <v>22</v>
+      </c>
+      <c r="E13" t="s" s="19">
+        <v>23</v>
+      </c>
+      <c r="F13" t="s" s="19">
         <v>24</v>
       </c>
-      <c r="C4" t="s" s="20">
+    </row>
+    <row r="14" ht="16.95" customHeight="1">
+      <c r="A14" t="s" s="19">
+        <v>44</v>
+      </c>
+      <c r="B14" t="s" s="19">
         <v>25</v>
       </c>
-      <c r="D4" t="s" s="20">
+      <c r="C14" s="20"/>
+      <c r="D14" t="s" s="19">
         <v>26</v>
       </c>
-      <c r="E4" s="21"/>
-    </row>
-    <row r="5" ht="20.55" customHeight="1">
-      <c r="A5" t="s" s="20">
-        <v>27</v>
-      </c>
-      <c r="B5" t="s" s="20">
-        <v>28</v>
-      </c>
-      <c r="C5" t="s" s="20">
+      <c r="E14" t="s" s="19">
+        <v>45</v>
+      </c>
+      <c r="F14" s="20"/>
+    </row>
+    <row r="15" ht="16.95" customHeight="1">
+      <c r="A15" t="s" s="19">
+        <v>46</v>
+      </c>
+      <c r="B15" t="s" s="19">
         <v>29</v>
       </c>
-      <c r="D5" t="s" s="20">
+      <c r="C15" s="21">
+        <v>255</v>
+      </c>
+      <c r="D15" t="s" s="19">
         <v>30</v>
       </c>
-      <c r="E5" s="21"/>
-    </row>
-    <row r="6" ht="20.55" customHeight="1">
-      <c r="A6" t="s" s="20">
-        <v>31</v>
-      </c>
-      <c r="B6" t="s" s="20">
-        <v>28</v>
-      </c>
-      <c r="C6" t="s" s="20">
-        <v>32</v>
-      </c>
-      <c r="D6" t="s" s="20">
-        <v>33</v>
-      </c>
-      <c r="E6" s="21"/>
-    </row>
-    <row r="7" ht="20.55" customHeight="1">
-      <c r="A7" t="s" s="20">
-        <v>34</v>
-      </c>
-      <c r="B7" t="s" s="20">
-        <v>28</v>
-      </c>
-      <c r="C7" t="s" s="20">
+      <c r="E15" t="s" s="19">
+        <v>47</v>
+      </c>
+      <c r="F15" s="20"/>
+    </row>
+    <row r="16" ht="16.95" customHeight="1">
+      <c r="A16" t="s" s="19">
+        <v>48</v>
+      </c>
+      <c r="B16" t="s" s="19">
         <v>29</v>
       </c>
-      <c r="D7" t="s" s="20">
-        <v>35</v>
-      </c>
-      <c r="E7" s="21"/>
-    </row>
-    <row r="8" ht="21.55" customHeight="1">
-      <c r="A8" t="s" s="20">
-        <v>36</v>
-      </c>
-      <c r="B8" t="s" s="20">
-        <v>28</v>
-      </c>
-      <c r="C8" t="s" s="20">
+      <c r="C16" s="21">
+        <v>50</v>
+      </c>
+      <c r="D16" t="s" s="19">
+        <v>30</v>
+      </c>
+      <c r="E16" t="s" s="19">
+        <v>49</v>
+      </c>
+      <c r="F16" s="20"/>
+    </row>
+    <row r="17" ht="16.95" customHeight="1">
+      <c r="A17" t="s" s="19">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s" s="19">
+        <v>40</v>
+      </c>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" t="s" s="19">
+        <v>41</v>
+      </c>
+      <c r="F17" s="20"/>
+    </row>
+    <row r="18" ht="16.95" customHeight="1">
+      <c r="A18" t="s" s="19">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s" s="19">
+        <v>40</v>
+      </c>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" t="s" s="19">
+        <v>42</v>
+      </c>
+      <c r="F18" s="20"/>
+    </row>
+    <row r="19" ht="16.95" customHeight="1">
+      <c r="A19" t="s" s="19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s" s="19">
+        <v>40</v>
+      </c>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" t="s" s="19">
+        <v>43</v>
+      </c>
+      <c r="F19" s="20"/>
+    </row>
+    <row r="20" ht="16.65" customHeight="1">
+      <c r="A20" s="22"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="23"/>
+    </row>
+    <row r="21" ht="16.65" customHeight="1">
+      <c r="A21" t="s" s="27">
+        <v>3</v>
+      </c>
+      <c r="B21" s="25"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="26"/>
+    </row>
+    <row r="22" ht="16.95" customHeight="1">
+      <c r="A22" t="s" s="19">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s" s="19">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s" s="19">
+        <v>21</v>
+      </c>
+      <c r="D22" t="s" s="19">
+        <v>22</v>
+      </c>
+      <c r="E22" t="s" s="19">
+        <v>23</v>
+      </c>
+      <c r="F22" t="s" s="19">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" ht="16.95" customHeight="1">
+      <c r="A23" t="s" s="19">
+        <v>6</v>
+      </c>
+      <c r="B23" t="s" s="19">
+        <v>25</v>
+      </c>
+      <c r="C23" s="20"/>
+      <c r="D23" t="s" s="19">
+        <v>26</v>
+      </c>
+      <c r="E23" t="s" s="19">
+        <v>50</v>
+      </c>
+      <c r="F23" s="20"/>
+    </row>
+    <row r="24" ht="16.95" customHeight="1">
+      <c r="A24" t="s" s="19">
+        <v>51</v>
+      </c>
+      <c r="B24" t="s" s="19">
+        <v>25</v>
+      </c>
+      <c r="C24" s="20"/>
+      <c r="D24" t="s" s="19">
+        <v>26</v>
+      </c>
+      <c r="E24" t="s" s="19">
+        <v>52</v>
+      </c>
+      <c r="F24" s="20"/>
+    </row>
+    <row r="25" ht="16.95" customHeight="1">
+      <c r="A25" t="s" s="19">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s" s="19">
+        <v>53</v>
+      </c>
+      <c r="C25" s="20"/>
+      <c r="D25" t="s" s="19">
+        <v>30</v>
+      </c>
+      <c r="E25" t="s" s="19">
+        <v>54</v>
+      </c>
+      <c r="F25" s="20"/>
+    </row>
+    <row r="26" ht="16.95" customHeight="1">
+      <c r="A26" t="s" s="19">
+        <v>55</v>
+      </c>
+      <c r="B26" t="s" s="19">
+        <v>25</v>
+      </c>
+      <c r="C26" s="20"/>
+      <c r="D26" t="s" s="19">
+        <v>56</v>
+      </c>
+      <c r="E26" t="s" s="19">
+        <v>57</v>
+      </c>
+      <c r="F26" s="20"/>
+    </row>
+    <row r="27" ht="16.95" customHeight="1">
+      <c r="A27" t="s" s="19">
+        <v>58</v>
+      </c>
+      <c r="B27" t="s" s="19">
         <v>29</v>
       </c>
-      <c r="D8" t="s" s="20">
-        <v>37</v>
-      </c>
-      <c r="E8" s="21"/>
-    </row>
-    <row r="9" ht="20.55" customHeight="1">
-      <c r="A9" t="s" s="20">
+      <c r="C27" s="21">
+        <v>255</v>
+      </c>
+      <c r="D27" s="20"/>
+      <c r="E27" t="s" s="19">
+        <v>59</v>
+      </c>
+      <c r="F27" s="20"/>
+    </row>
+    <row r="28" ht="16.95" customHeight="1">
+      <c r="A28" t="s" s="19">
+        <v>15</v>
+      </c>
+      <c r="B28" t="s" s="19">
+        <v>60</v>
+      </c>
+      <c r="C28" t="s" s="28">
+        <v>61</v>
+      </c>
+      <c r="D28" t="s" s="19">
+        <v>30</v>
+      </c>
+      <c r="E28" t="s" s="19">
+        <v>62</v>
+      </c>
+      <c r="F28" s="20"/>
+    </row>
+    <row r="29" ht="16.95" customHeight="1">
+      <c r="A29" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="B29" t="s" s="19">
+        <v>25</v>
+      </c>
+      <c r="C29" s="20"/>
+      <c r="D29" t="s" s="19">
+        <v>63</v>
+      </c>
+      <c r="E29" t="s" s="19">
+        <v>64</v>
+      </c>
+      <c r="F29" s="20"/>
+    </row>
+    <row r="30" ht="16.95" customHeight="1">
+      <c r="A30" t="s" s="19">
+        <v>39</v>
+      </c>
+      <c r="B30" t="s" s="19">
+        <v>40</v>
+      </c>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" t="s" s="19">
+        <v>41</v>
+      </c>
+      <c r="F30" s="20"/>
+    </row>
+    <row r="31" ht="16.95" customHeight="1">
+      <c r="A31" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="B9" t="s" s="20">
-        <v>38</v>
-      </c>
-      <c r="C9" s="22"/>
-      <c r="D9" t="s" s="20">
-        <v>39</v>
-      </c>
-      <c r="E9" s="21"/>
-    </row>
-    <row r="10" ht="20.55" customHeight="1">
-      <c r="A10" t="s" s="20">
+      <c r="B31" t="s" s="19">
+        <v>40</v>
+      </c>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" t="s" s="19">
+        <v>42</v>
+      </c>
+      <c r="F31" s="20"/>
+    </row>
+    <row r="32" ht="16.95" customHeight="1">
+      <c r="A32" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="B10" t="s" s="20">
-        <v>38</v>
-      </c>
-      <c r="C10" s="22"/>
-      <c r="D10" t="s" s="20">
+      <c r="B32" t="s" s="19">
         <v>40</v>
       </c>
-      <c r="E10" s="21"/>
-    </row>
-    <row r="11" ht="19.15" customHeight="1">
-      <c r="A11" s="23"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="25"/>
-    </row>
-    <row r="12" ht="19.15" customHeight="1">
-      <c r="A12" t="s" s="26">
-        <v>2</v>
-      </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="25"/>
-    </row>
-    <row r="13" ht="20.3" customHeight="1">
-      <c r="A13" t="s" s="20">
-        <v>20</v>
-      </c>
-      <c r="B13" t="s" s="20">
-        <v>21</v>
-      </c>
-      <c r="C13" t="s" s="20">
-        <v>22</v>
-      </c>
-      <c r="D13" t="s" s="20">
-        <v>23</v>
-      </c>
-      <c r="E13" s="28"/>
-    </row>
-    <row r="14" ht="21.55" customHeight="1">
-      <c r="A14" t="s" s="20">
-        <v>41</v>
-      </c>
-      <c r="B14" t="s" s="20">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s" s="20">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s" s="20">
-        <v>42</v>
-      </c>
-      <c r="E14" s="28"/>
-    </row>
-    <row r="15" ht="20.55" customHeight="1">
-      <c r="A15" t="s" s="20">
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" t="s" s="19">
         <v>43</v>
       </c>
-      <c r="B15" t="s" s="20">
-        <v>28</v>
-      </c>
-      <c r="C15" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="D15" t="s" s="20">
-        <v>44</v>
-      </c>
-      <c r="E15" s="28"/>
-    </row>
-    <row r="16" ht="21.55" customHeight="1">
-      <c r="A16" t="s" s="20">
-        <v>45</v>
-      </c>
-      <c r="B16" t="s" s="20">
-        <v>28</v>
-      </c>
-      <c r="C16" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="D16" t="s" s="20">
-        <v>46</v>
-      </c>
-      <c r="E16" s="28"/>
-    </row>
-    <row r="17" ht="20.55" customHeight="1">
-      <c r="A17" t="s" s="20">
-        <v>14</v>
-      </c>
-      <c r="B17" t="s" s="20">
-        <v>38</v>
-      </c>
-      <c r="C17" s="22"/>
-      <c r="D17" t="s" s="20">
-        <v>39</v>
-      </c>
-      <c r="E17" s="28"/>
-    </row>
-    <row r="18" ht="20.55" customHeight="1">
-      <c r="A18" t="s" s="20">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s" s="20">
-        <v>38</v>
-      </c>
-      <c r="C18" s="22"/>
-      <c r="D18" t="s" s="20">
-        <v>40</v>
-      </c>
-      <c r="E18" s="28"/>
-    </row>
-    <row r="19" ht="19.7" customHeight="1">
-      <c r="A19" s="29"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="25"/>
-    </row>
-    <row r="20" ht="19.7" customHeight="1">
-      <c r="A20" t="s" s="32">
-        <v>3</v>
-      </c>
-      <c r="B20" s="33"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="25"/>
-    </row>
-    <row r="21" ht="20.3" customHeight="1">
-      <c r="A21" t="s" s="20">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s" s="20">
-        <v>21</v>
-      </c>
-      <c r="C21" t="s" s="20">
-        <v>22</v>
-      </c>
-      <c r="D21" t="s" s="20">
-        <v>23</v>
-      </c>
-      <c r="E21" s="28"/>
-    </row>
-    <row r="22" ht="21.55" customHeight="1">
-      <c r="A22" t="s" s="20">
-        <v>6</v>
-      </c>
-      <c r="B22" t="s" s="20">
-        <v>24</v>
-      </c>
-      <c r="C22" t="s" s="20">
-        <v>25</v>
-      </c>
-      <c r="D22" t="s" s="20">
-        <v>47</v>
-      </c>
-      <c r="E22" s="28"/>
-    </row>
-    <row r="23" ht="20.55" customHeight="1">
-      <c r="A23" t="s" s="20">
-        <v>9</v>
-      </c>
-      <c r="B23" t="s" s="20">
-        <v>48</v>
-      </c>
-      <c r="C23" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="D23" t="s" s="20">
-        <v>49</v>
-      </c>
-      <c r="E23" s="28"/>
-    </row>
-    <row r="24" ht="21.55" customHeight="1">
-      <c r="A24" t="s" s="20">
-        <v>41</v>
-      </c>
-      <c r="B24" t="s" s="20">
-        <v>24</v>
-      </c>
-      <c r="C24" t="s" s="20">
-        <v>50</v>
-      </c>
-      <c r="D24" t="s" s="20">
-        <v>51</v>
-      </c>
-      <c r="E24" s="28"/>
-    </row>
-    <row r="25" ht="20.55" customHeight="1">
-      <c r="A25" t="s" s="20">
-        <v>15</v>
-      </c>
-      <c r="B25" t="s" s="20">
-        <v>52</v>
-      </c>
-      <c r="C25" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="D25" t="s" s="20">
-        <v>53</v>
-      </c>
-      <c r="E25" s="28"/>
-    </row>
-    <row r="26" ht="21.55" customHeight="1">
-      <c r="A26" t="s" s="20">
-        <v>4</v>
-      </c>
-      <c r="B26" t="s" s="20">
-        <v>24</v>
-      </c>
-      <c r="C26" t="s" s="20">
-        <v>54</v>
-      </c>
-      <c r="D26" t="s" s="20">
-        <v>55</v>
-      </c>
-      <c r="E26" s="28"/>
-    </row>
-    <row r="27" ht="20.55" customHeight="1">
-      <c r="A27" t="s" s="20">
-        <v>14</v>
-      </c>
-      <c r="B27" t="s" s="20">
-        <v>38</v>
-      </c>
-      <c r="C27" s="22"/>
-      <c r="D27" t="s" s="20">
-        <v>39</v>
-      </c>
-      <c r="E27" s="28"/>
-    </row>
-    <row r="28" ht="20.55" customHeight="1">
-      <c r="A28" t="s" s="20">
-        <v>17</v>
-      </c>
-      <c r="B28" t="s" s="20">
-        <v>38</v>
-      </c>
-      <c r="C28" s="22"/>
-      <c r="D28" t="s" s="20">
-        <v>40</v>
-      </c>
-      <c r="E28" s="35"/>
+      <c r="F32" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
-  </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>

--- a/設計（ER図、テーブル定義書）.xlsx
+++ b/設計（ER図、テーブル定義書）.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="72">
   <si>
     <t>ER図</t>
   </si>
@@ -71,85 +71,100 @@
     <t>users</t>
   </si>
   <si>
+    <t>物理名</t>
+  </si>
+  <si>
+    <t>論理名</t>
+  </si>
+  <si>
+    <t>データ型</t>
+  </si>
+  <si>
+    <t>サイズ</t>
+  </si>
+  <si>
+    <t>制約</t>
+  </si>
+  <si>
+    <t>説明</t>
+  </si>
+  <si>
+    <t>備考</t>
+  </si>
+  <si>
+    <t>ユーザーID</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>PRIMARY KEY, NOT NULL</t>
+  </si>
+  <si>
+    <t>主キー</t>
+  </si>
+  <si>
+    <t>user_name</t>
+  </si>
+  <si>
+    <t>ユーザー名</t>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>メールアドレス</t>
+  </si>
+  <si>
+    <t>NOT NULL, UNIQUE</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>パスワード</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>ユーザーの役割</t>
+  </si>
+  <si>
+    <t>管理者/一般</t>
+  </si>
+  <si>
+    <t>created_at</t>
+  </si>
+  <si>
+    <t>作成日時</t>
+  </si>
+  <si>
+    <t>DATETIME</t>
+  </si>
+  <si>
+    <t>更新日時</t>
+  </si>
+  <si>
+    <t>削除日時</t>
+  </si>
+  <si>
+    <t>論理削除用</t>
+  </si>
+  <si>
     <t>項目名</t>
   </si>
   <si>
-    <t>データ型</t>
-  </si>
-  <si>
-    <t>サイズ</t>
-  </si>
-  <si>
-    <t>制約</t>
-  </si>
-  <si>
-    <t>説明</t>
-  </si>
-  <si>
-    <t>備考</t>
-  </si>
-  <si>
-    <t>INT</t>
-  </si>
-  <si>
-    <t>PRIMARY KEY, NOT NULL</t>
-  </si>
-  <si>
-    <t>ユーザーID（主キー）</t>
-  </si>
-  <si>
-    <t>user_name</t>
-  </si>
-  <si>
-    <t>VARCHAR</t>
-  </si>
-  <si>
-    <t>NOT NULL</t>
-  </si>
-  <si>
-    <t>ユーザー名</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>NOT NULL, UNIQUE</t>
-  </si>
-  <si>
-    <t>メールアドレス</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>パスワード</t>
-  </si>
-  <si>
-    <t>role</t>
-  </si>
-  <si>
-    <t>ユーザーの役割（管理者/一般）</t>
-  </si>
-  <si>
-    <t>created_at</t>
-  </si>
-  <si>
-    <t>DATETIME</t>
-  </si>
-  <si>
-    <t>作成日時</t>
-  </si>
-  <si>
-    <t>更新日時</t>
-  </si>
-  <si>
-    <t>削除日時（論理削除用）</t>
-  </si>
-  <si>
     <t>categori_id</t>
   </si>
   <si>
-    <t>カテゴリID（主キー）</t>
+    <t>カテゴリID</t>
   </si>
   <si>
     <t>category_name</t>
@@ -161,22 +176,31 @@
     <t>category_type</t>
   </si>
   <si>
-    <t>カテゴリの種類（収入/支出）</t>
-  </si>
-  <si>
-    <t>収入ID（主キー）</t>
-  </si>
-  <si>
-    <t>expenditure_id</t>
-  </si>
-  <si>
-    <t>支出D（主キー）</t>
+    <t>カテゴリの種類</t>
+  </si>
+  <si>
+    <t>収入/支出</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>収支ID</t>
+  </si>
+  <si>
+    <t>日付</t>
   </si>
   <si>
     <t>DATE</t>
   </si>
   <si>
-    <t>日付</t>
+    <t>type</t>
+  </si>
+  <si>
+    <t>収支区分</t>
+  </si>
+  <si>
+    <t>収入または支出</t>
   </si>
   <si>
     <t>category_id</t>
@@ -185,7 +209,7 @@
     <t>FOREIGN KEY (categori)</t>
   </si>
   <si>
-    <t>カテゴリID（外部キー）</t>
+    <t>外部キー</t>
   </si>
   <si>
     <t>description</t>
@@ -194,19 +218,16 @@
     <t>摘要</t>
   </si>
   <si>
+    <t>金額</t>
+  </si>
+  <si>
     <t>DECIMAL</t>
   </si>
   <si>
     <t>10, 2</t>
   </si>
   <si>
-    <t>金額</t>
-  </si>
-  <si>
     <t>FOREIGN KEY (users)</t>
-  </si>
-  <si>
-    <t>ユーザーID（外部キー）</t>
   </si>
 </sst>
 </file>
@@ -241,7 +262,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -341,6 +362,51 @@
     </border>
     <border>
       <left style="medium">
+        <color indexed="9"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="9"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="dotted">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="8"/>
       </left>
       <right style="medium">
@@ -351,6 +417,21 @@
       </top>
       <bottom style="medium">
         <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="dotted">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -465,7 +546,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -493,8 +574,8 @@
     <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
@@ -502,13 +583,25 @@
     <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -517,40 +610,46 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -582,15 +681,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4490</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>143537</xdr:rowOff>
+      <xdr:colOff>175289</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1244599</xdr:colOff>
+      <xdr:colOff>175289</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>143537</xdr:rowOff>
+      <xdr:rowOff>198892</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -598,147 +697,9 @@
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1249090" y="1233197"/>
-          <a:ext cx="1240110" cy="1"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700" cap="flat">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1032024</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>188105</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1241583</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>144299</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="線"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2276624" y="1024400"/>
-          <a:ext cx="209560" cy="209560"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700" cap="flat">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1033497</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>148027</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1240109</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>101274</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="線"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2278097" y="1237687"/>
-          <a:ext cx="206613" cy="206613"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700" cap="flat">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1214709</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>12046</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>19412</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>12046</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="線"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3703909" y="1101706"/>
-          <a:ext cx="1293904" cy="1"/>
+        <a:xfrm flipV="1">
+          <a:off x="1419889" y="912544"/>
+          <a:ext cx="1" cy="376009"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -766,25 +727,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1040675</xdr:colOff>
+      <xdr:colOff>176026</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>112658</xdr:rowOff>
+      <xdr:rowOff>76249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1240109</xdr:colOff>
+      <xdr:colOff>176026</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>58728</xdr:rowOff>
+      <xdr:rowOff>198892</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="線"/>
+        <xdr:cNvPr id="3" name="線"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4774475" y="948953"/>
-          <a:ext cx="199435" cy="199436"/>
+          <a:off x="3909826" y="912544"/>
+          <a:ext cx="1" cy="376009"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -812,35 +773,86 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1040675</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>10187</xdr:rowOff>
+      <xdr:colOff>942123</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>200894</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1240109</xdr:colOff>
+      <xdr:colOff>1097949</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>209621</xdr:rowOff>
+      <xdr:rowOff>74247</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="線"/>
+        <xdr:cNvPr id="4" name="矢印10"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4774475" y="1099847"/>
-          <a:ext cx="199435" cy="199435"/>
+          <a:off x="4675923" y="1037189"/>
+          <a:ext cx="155827" cy="126719"/>
         </a:xfrm>
-        <a:prstGeom prst="line">
+        <a:custGeom>
           <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+            <a:cxn ang="5400000">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+            <a:cxn ang="10800000">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+            <a:cxn ang="16200000">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="21600" h="21600" fill="norm" stroke="1" extrusionOk="0">
+              <a:moveTo>
+                <a:pt x="9745" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="7428" y="3887"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="12357" y="8319"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="8319"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="13287"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="12286" y="13287"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="7418" y="17725"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="9755" y="21600"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="21600" y="10803"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="9745" y="0"/>
+              </a:lnTo>
+              <a:close/>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="000000"/>
+        </a:solidFill>
         <a:ln w="12700" cap="flat">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
+          <a:noFill/>
           <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst/>
@@ -858,81 +870,86 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>246956</xdr:colOff>
+      <xdr:colOff>934953</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>215248</xdr:rowOff>
+      <xdr:rowOff>200894</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>246956</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>84525</xdr:rowOff>
+      <xdr:colOff>1090779</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>74247</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="線"/>
+        <xdr:cNvPr id="5" name="矢印10"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1491556" y="1051543"/>
-          <a:ext cx="1" cy="376008"/>
+        <a:xfrm>
+          <a:off x="2179553" y="1037189"/>
+          <a:ext cx="155827" cy="126719"/>
         </a:xfrm>
-        <a:prstGeom prst="line">
+        <a:custGeom>
           <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+            <a:cxn ang="5400000">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+            <a:cxn ang="10800000">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+            <a:cxn ang="16200000">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="21600" h="21600" fill="norm" stroke="1" extrusionOk="0">
+              <a:moveTo>
+                <a:pt x="9745" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="7428" y="3887"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="12357" y="8319"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="8319"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="13287"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="12286" y="13287"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="7418" y="17725"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="9755" y="21600"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="21600" y="10803"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="9745" y="0"/>
+              </a:lnTo>
+              <a:close/>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="000000"/>
+        </a:solidFill>
         <a:ln w="12700" cap="flat">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>199914</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>128579</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>199914</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>251221</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="線"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3933714" y="964874"/>
-          <a:ext cx="1" cy="376008"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700" cap="flat">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
+          <a:noFill/>
           <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst/>
@@ -2058,11 +2075,11 @@
       <c r="A4" t="s" s="3">
         <v>7</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="9"/>
       <c r="C4" t="s" s="5">
         <v>8</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="10"/>
       <c r="E4" t="s" s="5">
         <v>9</v>
       </c>
@@ -2073,11 +2090,11 @@
       <c r="A5" t="s" s="3">
         <v>10</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" t="s" s="9">
+      <c r="B5" s="11"/>
+      <c r="C5" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="13"/>
       <c r="E5" t="s" s="5">
         <v>12</v>
       </c>
@@ -2088,7 +2105,7 @@
       <c r="A6" t="s" s="3">
         <v>13</v>
       </c>
-      <c r="B6" s="10"/>
+      <c r="B6" s="14"/>
       <c r="C6" t="s" s="3">
         <v>14</v>
       </c>
@@ -2103,12 +2120,12 @@
       <c r="A7" t="s" s="3">
         <v>16</v>
       </c>
-      <c r="B7" s="10"/>
+      <c r="B7" s="14"/>
       <c r="C7" t="s" s="3">
         <v>17</v>
       </c>
       <c r="D7" s="4"/>
-      <c r="E7" t="s" s="9">
+      <c r="E7" t="s" s="12">
         <v>4</v>
       </c>
       <c r="F7" s="7"/>
@@ -2118,39 +2135,39 @@
       <c r="A8" t="s" s="3">
         <v>14</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="13"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="17"/>
       <c r="E8" t="s" s="3">
         <v>14</v>
       </c>
-      <c r="F8" s="11"/>
+      <c r="F8" s="15"/>
       <c r="G8" s="8"/>
     </row>
     <row r="9" ht="19.95" customHeight="1">
       <c r="A9" t="s" s="3">
         <v>17</v>
       </c>
-      <c r="B9" s="11"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="8"/>
-      <c r="D9" s="13"/>
+      <c r="D9" s="17"/>
       <c r="E9" t="s" s="3">
         <v>17</v>
       </c>
-      <c r="F9" s="11"/>
+      <c r="F9" s="15"/>
       <c r="G9" s="8"/>
     </row>
     <row r="10" ht="19.15" customHeight="1">
-      <c r="A10" s="14"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
-      <c r="E10" s="12"/>
+      <c r="E10" s="16"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
     </row>
     <row r="11" ht="18.3" customHeight="1">
-      <c r="A11" s="15"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
@@ -2195,7 +2212,7 @@
       <c r="G15" s="8"/>
     </row>
     <row r="16" ht="18.3" customHeight="1">
-      <c r="A16" s="15"/>
+      <c r="A16" s="19"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -2204,7 +2221,7 @@
       <c r="G16" s="8"/>
     </row>
     <row r="17" ht="18.3" customHeight="1">
-      <c r="A17" s="15"/>
+      <c r="A17" s="19"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
@@ -2213,7 +2230,7 @@
       <c r="G17" s="8"/>
     </row>
     <row r="18" ht="18.3" customHeight="1">
-      <c r="A18" s="15"/>
+      <c r="A18" s="19"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -2222,7 +2239,7 @@
       <c r="G18" s="8"/>
     </row>
     <row r="19" ht="18.3" customHeight="1">
-      <c r="A19" s="15"/>
+      <c r="A19" s="19"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -2231,7 +2248,7 @@
       <c r="G19" s="8"/>
     </row>
     <row r="20" ht="18.3" customHeight="1">
-      <c r="A20" s="15"/>
+      <c r="A20" s="19"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -2240,7 +2257,7 @@
       <c r="G20" s="8"/>
     </row>
     <row r="21" ht="18.3" customHeight="1">
-      <c r="A21" s="15"/>
+      <c r="A21" s="19"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -2249,7 +2266,7 @@
       <c r="G21" s="8"/>
     </row>
     <row r="22" ht="18.3" customHeight="1">
-      <c r="A22" s="15"/>
+      <c r="A22" s="19"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -2275,505 +2292,563 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.6" defaultRowHeight="23" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="2" width="19.6016" style="16" customWidth="1"/>
-    <col min="3" max="3" width="14.7969" style="16" customWidth="1"/>
-    <col min="4" max="4" width="38.8438" style="16" customWidth="1"/>
-    <col min="5" max="5" width="43.4453" style="16" customWidth="1"/>
-    <col min="6" max="6" width="19.6016" style="16" customWidth="1"/>
-    <col min="7" max="16384" width="19.6016" style="16" customWidth="1"/>
+    <col min="1" max="3" width="19.6016" style="20" customWidth="1"/>
+    <col min="4" max="4" width="14.7969" style="20" customWidth="1"/>
+    <col min="5" max="5" width="38.8438" style="20" customWidth="1"/>
+    <col min="6" max="6" width="43.4453" style="20" customWidth="1"/>
+    <col min="7" max="7" width="19.6016" style="20" customWidth="1"/>
+    <col min="8" max="16384" width="19.6016" style="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.65" customHeight="1">
-      <c r="A1" t="s" s="17">
+      <c r="A1" t="s" s="21">
         <v>18</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
     </row>
     <row r="2" ht="16.95" customHeight="1">
-      <c r="A2" t="s" s="19">
+      <c r="A2" t="s" s="23">
         <v>19</v>
       </c>
-      <c r="B2" t="s" s="19">
+      <c r="B2" t="s" s="23">
         <v>20</v>
       </c>
-      <c r="C2" t="s" s="19">
+      <c r="C2" t="s" s="23">
         <v>21</v>
       </c>
-      <c r="D2" t="s" s="19">
+      <c r="D2" t="s" s="23">
         <v>22</v>
       </c>
-      <c r="E2" t="s" s="19">
+      <c r="E2" t="s" s="23">
         <v>23</v>
       </c>
-      <c r="F2" t="s" s="19">
+      <c r="F2" t="s" s="23">
         <v>24</v>
       </c>
+      <c r="G2" t="s" s="23">
+        <v>25</v>
+      </c>
     </row>
     <row r="3" ht="16.95" customHeight="1">
-      <c r="A3" t="s" s="19">
+      <c r="A3" t="s" s="23">
         <v>4</v>
       </c>
-      <c r="B3" t="s" s="19">
+      <c r="B3" t="s" s="23">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s" s="23">
+        <v>27</v>
+      </c>
+      <c r="D3" s="24"/>
+      <c r="E3" t="s" s="23">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s" s="23">
+        <v>29</v>
+      </c>
+      <c r="G3" s="24"/>
+    </row>
+    <row r="4" ht="16.95" customHeight="1">
+      <c r="A4" t="s" s="23">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s" s="23">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s" s="23">
+        <v>32</v>
+      </c>
+      <c r="D4" s="25">
+        <v>255</v>
+      </c>
+      <c r="E4" t="s" s="23">
+        <v>33</v>
+      </c>
+      <c r="F4" s="26"/>
+      <c r="G4" s="24"/>
+    </row>
+    <row r="5" ht="16.95" customHeight="1">
+      <c r="A5" t="s" s="23">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s" s="23">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s" s="23">
+        <v>32</v>
+      </c>
+      <c r="D5" s="25">
+        <v>255</v>
+      </c>
+      <c r="E5" t="s" s="23">
+        <v>36</v>
+      </c>
+      <c r="F5" s="26"/>
+      <c r="G5" s="24"/>
+    </row>
+    <row r="6" ht="16.95" customHeight="1">
+      <c r="A6" t="s" s="23">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s" s="23">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s" s="23">
+        <v>32</v>
+      </c>
+      <c r="D6" s="25">
+        <v>255</v>
+      </c>
+      <c r="E6" t="s" s="23">
+        <v>33</v>
+      </c>
+      <c r="F6" s="26"/>
+      <c r="G6" s="24"/>
+    </row>
+    <row r="7" ht="16.95" customHeight="1">
+      <c r="A7" t="s" s="23">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s" s="23">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s" s="23">
+        <v>32</v>
+      </c>
+      <c r="D7" s="25">
+        <v>50</v>
+      </c>
+      <c r="E7" t="s" s="23">
+        <v>33</v>
+      </c>
+      <c r="F7" t="s" s="23">
+        <v>41</v>
+      </c>
+      <c r="G7" s="24"/>
+    </row>
+    <row r="8" ht="16.95" customHeight="1">
+      <c r="A8" t="s" s="23">
+        <v>42</v>
+      </c>
+      <c r="B8" t="s" s="23">
+        <v>43</v>
+      </c>
+      <c r="C8" t="s" s="23">
+        <v>44</v>
+      </c>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="24"/>
+    </row>
+    <row r="9" ht="16.95" customHeight="1">
+      <c r="A9" t="s" s="23">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s" s="23">
+        <v>45</v>
+      </c>
+      <c r="C9" t="s" s="23">
+        <v>44</v>
+      </c>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="24"/>
+    </row>
+    <row r="10" ht="16.95" customHeight="1">
+      <c r="A10" t="s" s="23">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s" s="23">
+        <v>46</v>
+      </c>
+      <c r="C10" t="s" s="23">
+        <v>44</v>
+      </c>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" t="s" s="23">
+        <v>47</v>
+      </c>
+      <c r="G10" s="24"/>
+    </row>
+    <row r="11" ht="16.65" customHeight="1">
+      <c r="A11" s="27"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="28"/>
+    </row>
+    <row r="12" ht="16.65" customHeight="1">
+      <c r="A12" t="s" s="29">
+        <v>2</v>
+      </c>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="31"/>
+    </row>
+    <row r="13" ht="16.95" customHeight="1">
+      <c r="A13" t="s" s="23">
+        <v>48</v>
+      </c>
+      <c r="B13" s="26"/>
+      <c r="C13" t="s" s="23">
+        <v>21</v>
+      </c>
+      <c r="D13" t="s" s="23">
+        <v>22</v>
+      </c>
+      <c r="E13" t="s" s="23">
+        <v>23</v>
+      </c>
+      <c r="F13" t="s" s="23">
+        <v>24</v>
+      </c>
+      <c r="G13" t="s" s="23">
         <v>25</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" t="s" s="19">
+    </row>
+    <row r="14" ht="16.95" customHeight="1">
+      <c r="A14" t="s" s="23">
+        <v>49</v>
+      </c>
+      <c r="B14" t="s" s="23">
+        <v>50</v>
+      </c>
+      <c r="C14" t="s" s="23">
+        <v>27</v>
+      </c>
+      <c r="D14" s="24"/>
+      <c r="E14" t="s" s="23">
+        <v>28</v>
+      </c>
+      <c r="F14" t="s" s="23">
+        <v>29</v>
+      </c>
+      <c r="G14" s="24"/>
+    </row>
+    <row r="15" ht="16.95" customHeight="1">
+      <c r="A15" t="s" s="23">
+        <v>51</v>
+      </c>
+      <c r="B15" t="s" s="23">
+        <v>52</v>
+      </c>
+      <c r="C15" t="s" s="23">
+        <v>32</v>
+      </c>
+      <c r="D15" s="25">
+        <v>255</v>
+      </c>
+      <c r="E15" t="s" s="23">
+        <v>33</v>
+      </c>
+      <c r="F15" s="26"/>
+      <c r="G15" s="24"/>
+    </row>
+    <row r="16" ht="16.95" customHeight="1">
+      <c r="A16" t="s" s="23">
+        <v>53</v>
+      </c>
+      <c r="B16" t="s" s="23">
+        <v>54</v>
+      </c>
+      <c r="C16" t="s" s="23">
+        <v>32</v>
+      </c>
+      <c r="D16" s="25">
+        <v>50</v>
+      </c>
+      <c r="E16" t="s" s="23">
+        <v>33</v>
+      </c>
+      <c r="F16" t="s" s="23">
+        <v>55</v>
+      </c>
+      <c r="G16" s="24"/>
+    </row>
+    <row r="17" ht="16.95" customHeight="1">
+      <c r="A17" t="s" s="23">
+        <v>42</v>
+      </c>
+      <c r="B17" t="s" s="23">
+        <v>43</v>
+      </c>
+      <c r="C17" t="s" s="23">
+        <v>44</v>
+      </c>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="24"/>
+    </row>
+    <row r="18" ht="16.95" customHeight="1">
+      <c r="A18" t="s" s="23">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s" s="23">
+        <v>45</v>
+      </c>
+      <c r="C18" t="s" s="23">
+        <v>44</v>
+      </c>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="24"/>
+    </row>
+    <row r="19" ht="16.95" customHeight="1">
+      <c r="A19" t="s" s="23">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s" s="23">
+        <v>46</v>
+      </c>
+      <c r="C19" t="s" s="23">
+        <v>44</v>
+      </c>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" t="s" s="23">
+        <v>47</v>
+      </c>
+      <c r="G19" s="24"/>
+    </row>
+    <row r="20" ht="16.65" customHeight="1">
+      <c r="A20" s="27"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="28"/>
+    </row>
+    <row r="21" ht="16.65" customHeight="1">
+      <c r="A21" t="s" s="32">
+        <v>3</v>
+      </c>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="31"/>
+    </row>
+    <row r="22" ht="16.95" customHeight="1">
+      <c r="A22" t="s" s="23">
+        <v>48</v>
+      </c>
+      <c r="B22" s="26"/>
+      <c r="C22" t="s" s="23">
+        <v>21</v>
+      </c>
+      <c r="D22" t="s" s="23">
+        <v>22</v>
+      </c>
+      <c r="E22" t="s" s="23">
+        <v>23</v>
+      </c>
+      <c r="F22" t="s" s="23">
+        <v>24</v>
+      </c>
+      <c r="G22" t="s" s="23">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" ht="16.95" customHeight="1">
+      <c r="A23" t="s" s="23">
+        <v>56</v>
+      </c>
+      <c r="B23" t="s" s="23">
+        <v>57</v>
+      </c>
+      <c r="C23" t="s" s="23">
+        <v>27</v>
+      </c>
+      <c r="D23" s="24"/>
+      <c r="E23" t="s" s="23">
+        <v>28</v>
+      </c>
+      <c r="F23" t="s" s="23">
+        <v>29</v>
+      </c>
+      <c r="G23" s="24"/>
+    </row>
+    <row r="24" ht="16.95" customHeight="1">
+      <c r="A24" t="s" s="23">
+        <v>9</v>
+      </c>
+      <c r="B24" t="s" s="23">
+        <v>58</v>
+      </c>
+      <c r="C24" t="s" s="23">
+        <v>59</v>
+      </c>
+      <c r="D24" s="24"/>
+      <c r="E24" t="s" s="23">
+        <v>33</v>
+      </c>
+      <c r="F24" s="26"/>
+      <c r="G24" s="24"/>
+    </row>
+    <row r="25" ht="16.95" customHeight="1">
+      <c r="A25" t="s" s="23">
+        <v>60</v>
+      </c>
+      <c r="B25" t="s" s="23">
+        <v>61</v>
+      </c>
+      <c r="C25" t="s" s="23">
+        <v>32</v>
+      </c>
+      <c r="D25" s="33">
+        <v>10</v>
+      </c>
+      <c r="E25" t="s" s="23">
+        <v>33</v>
+      </c>
+      <c r="F25" t="s" s="23">
+        <v>62</v>
+      </c>
+      <c r="G25" s="24"/>
+    </row>
+    <row r="26" ht="16.95" customHeight="1">
+      <c r="A26" t="s" s="23">
+        <v>63</v>
+      </c>
+      <c r="B26" t="s" s="23">
+        <v>50</v>
+      </c>
+      <c r="C26" t="s" s="23">
+        <v>27</v>
+      </c>
+      <c r="D26" s="24"/>
+      <c r="E26" t="s" s="23">
+        <v>64</v>
+      </c>
+      <c r="F26" t="s" s="23">
+        <v>65</v>
+      </c>
+      <c r="G26" s="24"/>
+    </row>
+    <row r="27" ht="16.95" customHeight="1">
+      <c r="A27" t="s" s="23">
+        <v>66</v>
+      </c>
+      <c r="B27" t="s" s="23">
+        <v>67</v>
+      </c>
+      <c r="C27" t="s" s="23">
+        <v>32</v>
+      </c>
+      <c r="D27" s="25">
+        <v>255</v>
+      </c>
+      <c r="E27" s="24"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="24"/>
+    </row>
+    <row r="28" ht="16.95" customHeight="1">
+      <c r="A28" t="s" s="23">
+        <v>15</v>
+      </c>
+      <c r="B28" t="s" s="23">
+        <v>68</v>
+      </c>
+      <c r="C28" t="s" s="23">
+        <v>69</v>
+      </c>
+      <c r="D28" t="s" s="34">
+        <v>70</v>
+      </c>
+      <c r="E28" t="s" s="23">
+        <v>33</v>
+      </c>
+      <c r="F28" s="26"/>
+      <c r="G28" s="24"/>
+    </row>
+    <row r="29" ht="16.95" customHeight="1">
+      <c r="A29" t="s" s="23">
+        <v>4</v>
+      </c>
+      <c r="B29" t="s" s="23">
         <v>26</v>
       </c>
-      <c r="E3" t="s" s="19">
+      <c r="C29" t="s" s="23">
         <v>27</v>
       </c>
-      <c r="F3" s="20"/>
-    </row>
-    <row r="4" ht="16.95" customHeight="1">
-      <c r="A4" t="s" s="19">
-        <v>28</v>
-      </c>
-      <c r="B4" t="s" s="19">
-        <v>29</v>
-      </c>
-      <c r="C4" s="21">
-        <v>255</v>
-      </c>
-      <c r="D4" t="s" s="19">
-        <v>30</v>
-      </c>
-      <c r="E4" t="s" s="19">
-        <v>31</v>
-      </c>
-      <c r="F4" s="20"/>
-    </row>
-    <row r="5" ht="16.95" customHeight="1">
-      <c r="A5" t="s" s="19">
-        <v>32</v>
-      </c>
-      <c r="B5" t="s" s="19">
-        <v>29</v>
-      </c>
-      <c r="C5" s="21">
-        <v>255</v>
-      </c>
-      <c r="D5" t="s" s="19">
-        <v>33</v>
-      </c>
-      <c r="E5" t="s" s="19">
-        <v>34</v>
-      </c>
-      <c r="F5" s="20"/>
-    </row>
-    <row r="6" ht="16.95" customHeight="1">
-      <c r="A6" t="s" s="19">
-        <v>35</v>
-      </c>
-      <c r="B6" t="s" s="19">
-        <v>29</v>
-      </c>
-      <c r="C6" s="21">
-        <v>255</v>
-      </c>
-      <c r="D6" t="s" s="19">
-        <v>30</v>
-      </c>
-      <c r="E6" t="s" s="19">
-        <v>36</v>
-      </c>
-      <c r="F6" s="20"/>
-    </row>
-    <row r="7" ht="16.95" customHeight="1">
-      <c r="A7" t="s" s="19">
-        <v>37</v>
-      </c>
-      <c r="B7" t="s" s="19">
-        <v>29</v>
-      </c>
-      <c r="C7" s="21">
-        <v>50</v>
-      </c>
-      <c r="D7" t="s" s="19">
-        <v>30</v>
-      </c>
-      <c r="E7" t="s" s="19">
-        <v>38</v>
-      </c>
-      <c r="F7" s="20"/>
-    </row>
-    <row r="8" ht="16.95" customHeight="1">
-      <c r="A8" t="s" s="19">
-        <v>39</v>
-      </c>
-      <c r="B8" t="s" s="19">
-        <v>40</v>
-      </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" t="s" s="19">
-        <v>41</v>
-      </c>
-      <c r="F8" s="20"/>
-    </row>
-    <row r="9" ht="16.95" customHeight="1">
-      <c r="A9" t="s" s="19">
+      <c r="D29" s="24"/>
+      <c r="E29" t="s" s="23">
+        <v>71</v>
+      </c>
+      <c r="F29" t="s" s="23">
+        <v>65</v>
+      </c>
+      <c r="G29" s="24"/>
+    </row>
+    <row r="30" ht="16.95" customHeight="1">
+      <c r="A30" t="s" s="23">
+        <v>42</v>
+      </c>
+      <c r="B30" t="s" s="23">
+        <v>43</v>
+      </c>
+      <c r="C30" t="s" s="23">
+        <v>44</v>
+      </c>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="24"/>
+    </row>
+    <row r="31" ht="16.95" customHeight="1">
+      <c r="A31" t="s" s="23">
         <v>14</v>
       </c>
-      <c r="B9" t="s" s="19">
-        <v>40</v>
-      </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" t="s" s="19">
-        <v>42</v>
-      </c>
-      <c r="F9" s="20"/>
-    </row>
-    <row r="10" ht="16.95" customHeight="1">
-      <c r="A10" t="s" s="19">
+      <c r="B31" t="s" s="23">
+        <v>45</v>
+      </c>
+      <c r="C31" t="s" s="23">
+        <v>44</v>
+      </c>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="24"/>
+    </row>
+    <row r="32" ht="16.95" customHeight="1">
+      <c r="A32" t="s" s="23">
         <v>17</v>
       </c>
-      <c r="B10" t="s" s="19">
-        <v>40</v>
-      </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" t="s" s="19">
-        <v>43</v>
-      </c>
-      <c r="F10" s="20"/>
-    </row>
-    <row r="11" ht="16.65" customHeight="1">
-      <c r="A11" s="22"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="23"/>
-    </row>
-    <row r="12" ht="16.65" customHeight="1">
-      <c r="A12" t="s" s="24">
-        <v>2</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="26"/>
-    </row>
-    <row r="13" ht="16.95" customHeight="1">
-      <c r="A13" t="s" s="19">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s" s="19">
-        <v>20</v>
-      </c>
-      <c r="C13" t="s" s="19">
-        <v>21</v>
-      </c>
-      <c r="D13" t="s" s="19">
-        <v>22</v>
-      </c>
-      <c r="E13" t="s" s="19">
-        <v>23</v>
-      </c>
-      <c r="F13" t="s" s="19">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" ht="16.95" customHeight="1">
-      <c r="A14" t="s" s="19">
+      <c r="B32" t="s" s="23">
+        <v>46</v>
+      </c>
+      <c r="C32" t="s" s="23">
         <v>44</v>
       </c>
-      <c r="B14" t="s" s="19">
-        <v>25</v>
-      </c>
-      <c r="C14" s="20"/>
-      <c r="D14" t="s" s="19">
-        <v>26</v>
-      </c>
-      <c r="E14" t="s" s="19">
-        <v>45</v>
-      </c>
-      <c r="F14" s="20"/>
-    </row>
-    <row r="15" ht="16.95" customHeight="1">
-      <c r="A15" t="s" s="19">
-        <v>46</v>
-      </c>
-      <c r="B15" t="s" s="19">
-        <v>29</v>
-      </c>
-      <c r="C15" s="21">
-        <v>255</v>
-      </c>
-      <c r="D15" t="s" s="19">
-        <v>30</v>
-      </c>
-      <c r="E15" t="s" s="19">
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" t="s" s="23">
         <v>47</v>
       </c>
-      <c r="F15" s="20"/>
-    </row>
-    <row r="16" ht="16.95" customHeight="1">
-      <c r="A16" t="s" s="19">
-        <v>48</v>
-      </c>
-      <c r="B16" t="s" s="19">
-        <v>29</v>
-      </c>
-      <c r="C16" s="21">
-        <v>50</v>
-      </c>
-      <c r="D16" t="s" s="19">
-        <v>30</v>
-      </c>
-      <c r="E16" t="s" s="19">
-        <v>49</v>
-      </c>
-      <c r="F16" s="20"/>
-    </row>
-    <row r="17" ht="16.95" customHeight="1">
-      <c r="A17" t="s" s="19">
-        <v>39</v>
-      </c>
-      <c r="B17" t="s" s="19">
-        <v>40</v>
-      </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" t="s" s="19">
-        <v>41</v>
-      </c>
-      <c r="F17" s="20"/>
-    </row>
-    <row r="18" ht="16.95" customHeight="1">
-      <c r="A18" t="s" s="19">
-        <v>14</v>
-      </c>
-      <c r="B18" t="s" s="19">
-        <v>40</v>
-      </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" t="s" s="19">
-        <v>42</v>
-      </c>
-      <c r="F18" s="20"/>
-    </row>
-    <row r="19" ht="16.95" customHeight="1">
-      <c r="A19" t="s" s="19">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s" s="19">
-        <v>40</v>
-      </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" t="s" s="19">
-        <v>43</v>
-      </c>
-      <c r="F19" s="20"/>
-    </row>
-    <row r="20" ht="16.65" customHeight="1">
-      <c r="A20" s="22"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="23"/>
-    </row>
-    <row r="21" ht="16.65" customHeight="1">
-      <c r="A21" t="s" s="27">
-        <v>3</v>
-      </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="26"/>
-    </row>
-    <row r="22" ht="16.95" customHeight="1">
-      <c r="A22" t="s" s="19">
-        <v>19</v>
-      </c>
-      <c r="B22" t="s" s="19">
-        <v>20</v>
-      </c>
-      <c r="C22" t="s" s="19">
-        <v>21</v>
-      </c>
-      <c r="D22" t="s" s="19">
-        <v>22</v>
-      </c>
-      <c r="E22" t="s" s="19">
-        <v>23</v>
-      </c>
-      <c r="F22" t="s" s="19">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" ht="16.95" customHeight="1">
-      <c r="A23" t="s" s="19">
-        <v>6</v>
-      </c>
-      <c r="B23" t="s" s="19">
-        <v>25</v>
-      </c>
-      <c r="C23" s="20"/>
-      <c r="D23" t="s" s="19">
-        <v>26</v>
-      </c>
-      <c r="E23" t="s" s="19">
-        <v>50</v>
-      </c>
-      <c r="F23" s="20"/>
-    </row>
-    <row r="24" ht="16.95" customHeight="1">
-      <c r="A24" t="s" s="19">
-        <v>51</v>
-      </c>
-      <c r="B24" t="s" s="19">
-        <v>25</v>
-      </c>
-      <c r="C24" s="20"/>
-      <c r="D24" t="s" s="19">
-        <v>26</v>
-      </c>
-      <c r="E24" t="s" s="19">
-        <v>52</v>
-      </c>
-      <c r="F24" s="20"/>
-    </row>
-    <row r="25" ht="16.95" customHeight="1">
-      <c r="A25" t="s" s="19">
-        <v>9</v>
-      </c>
-      <c r="B25" t="s" s="19">
-        <v>53</v>
-      </c>
-      <c r="C25" s="20"/>
-      <c r="D25" t="s" s="19">
-        <v>30</v>
-      </c>
-      <c r="E25" t="s" s="19">
-        <v>54</v>
-      </c>
-      <c r="F25" s="20"/>
-    </row>
-    <row r="26" ht="16.95" customHeight="1">
-      <c r="A26" t="s" s="19">
-        <v>55</v>
-      </c>
-      <c r="B26" t="s" s="19">
-        <v>25</v>
-      </c>
-      <c r="C26" s="20"/>
-      <c r="D26" t="s" s="19">
-        <v>56</v>
-      </c>
-      <c r="E26" t="s" s="19">
-        <v>57</v>
-      </c>
-      <c r="F26" s="20"/>
-    </row>
-    <row r="27" ht="16.95" customHeight="1">
-      <c r="A27" t="s" s="19">
-        <v>58</v>
-      </c>
-      <c r="B27" t="s" s="19">
-        <v>29</v>
-      </c>
-      <c r="C27" s="21">
-        <v>255</v>
-      </c>
-      <c r="D27" s="20"/>
-      <c r="E27" t="s" s="19">
-        <v>59</v>
-      </c>
-      <c r="F27" s="20"/>
-    </row>
-    <row r="28" ht="16.95" customHeight="1">
-      <c r="A28" t="s" s="19">
-        <v>15</v>
-      </c>
-      <c r="B28" t="s" s="19">
-        <v>60</v>
-      </c>
-      <c r="C28" t="s" s="28">
-        <v>61</v>
-      </c>
-      <c r="D28" t="s" s="19">
-        <v>30</v>
-      </c>
-      <c r="E28" t="s" s="19">
-        <v>62</v>
-      </c>
-      <c r="F28" s="20"/>
-    </row>
-    <row r="29" ht="16.95" customHeight="1">
-      <c r="A29" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="B29" t="s" s="19">
-        <v>25</v>
-      </c>
-      <c r="C29" s="20"/>
-      <c r="D29" t="s" s="19">
-        <v>63</v>
-      </c>
-      <c r="E29" t="s" s="19">
-        <v>64</v>
-      </c>
-      <c r="F29" s="20"/>
-    </row>
-    <row r="30" ht="16.95" customHeight="1">
-      <c r="A30" t="s" s="19">
-        <v>39</v>
-      </c>
-      <c r="B30" t="s" s="19">
-        <v>40</v>
-      </c>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" t="s" s="19">
-        <v>41</v>
-      </c>
-      <c r="F30" s="20"/>
-    </row>
-    <row r="31" ht="16.95" customHeight="1">
-      <c r="A31" t="s" s="19">
-        <v>14</v>
-      </c>
-      <c r="B31" t="s" s="19">
-        <v>40</v>
-      </c>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" t="s" s="19">
-        <v>42</v>
-      </c>
-      <c r="F31" s="20"/>
-    </row>
-    <row r="32" ht="16.95" customHeight="1">
-      <c r="A32" t="s" s="19">
-        <v>17</v>
-      </c>
-      <c r="B32" t="s" s="19">
-        <v>40</v>
-      </c>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" t="s" s="19">
-        <v>43</v>
-      </c>
-      <c r="F32" s="20"/>
+      <c r="G32" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>

--- a/設計（ER図、テーブル定義書）.xlsx
+++ b/設計（ER図、テーブル定義書）.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="73">
   <si>
     <t>ER図</t>
   </si>
@@ -20,142 +20,145 @@
     <t xml:space="preserve">users </t>
   </si>
   <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>income</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">categori_id </t>
+  </si>
+  <si>
+    <t>income_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> user_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> category_name</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> email</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> category_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    categori_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> password</t>
+  </si>
+  <si>
+    <t>updated_at</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> role</t>
+  </si>
+  <si>
+    <t>deleted_at</t>
+  </si>
+  <si>
+    <t>users</t>
+  </si>
+  <si>
+    <t>物理名</t>
+  </si>
+  <si>
+    <t>論理名</t>
+  </si>
+  <si>
+    <t>データ型</t>
+  </si>
+  <si>
+    <t>サイズ</t>
+  </si>
+  <si>
+    <t>制約</t>
+  </si>
+  <si>
+    <t>説明</t>
+  </si>
+  <si>
+    <t>備考</t>
+  </si>
+  <si>
+    <t>ユーザーID</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>PRIMARY KEY, NOT NULL</t>
+  </si>
+  <si>
+    <t>主キー</t>
+  </si>
+  <si>
+    <t>user_name</t>
+  </si>
+  <si>
+    <t>ユーザー名</t>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>メールアドレス</t>
+  </si>
+  <si>
+    <t>NOT NULL, UNIQUE</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>パスワード</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>ユーザーの役割</t>
+  </si>
+  <si>
+    <t>管理者/一般</t>
+  </si>
+  <si>
+    <t>created_at</t>
+  </si>
+  <si>
+    <t>作成日時</t>
+  </si>
+  <si>
+    <t>DATETIME</t>
+  </si>
+  <si>
+    <t>更新日時</t>
+  </si>
+  <si>
+    <t>削除日時</t>
+  </si>
+  <si>
+    <t>論理削除用</t>
+  </si>
+  <si>
     <t>categori</t>
-  </si>
-  <si>
-    <t>income</t>
-  </si>
-  <si>
-    <t>user_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">categori_id </t>
-  </si>
-  <si>
-    <t>income_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> user_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> category_name</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> email</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> category_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    categori_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> password</t>
-  </si>
-  <si>
-    <t>updated_at</t>
-  </si>
-  <si>
-    <t>amount</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> role</t>
-  </si>
-  <si>
-    <t>deleted_at</t>
-  </si>
-  <si>
-    <t>users</t>
-  </si>
-  <si>
-    <t>物理名</t>
-  </si>
-  <si>
-    <t>論理名</t>
-  </si>
-  <si>
-    <t>データ型</t>
-  </si>
-  <si>
-    <t>サイズ</t>
-  </si>
-  <si>
-    <t>制約</t>
-  </si>
-  <si>
-    <t>説明</t>
-  </si>
-  <si>
-    <t>備考</t>
-  </si>
-  <si>
-    <t>ユーザーID</t>
-  </si>
-  <si>
-    <t>INT</t>
-  </si>
-  <si>
-    <t>PRIMARY KEY, NOT NULL</t>
-  </si>
-  <si>
-    <t>主キー</t>
-  </si>
-  <si>
-    <t>user_name</t>
-  </si>
-  <si>
-    <t>ユーザー名</t>
-  </si>
-  <si>
-    <t>VARCHAR</t>
-  </si>
-  <si>
-    <t>NOT NULL</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>メールアドレス</t>
-  </si>
-  <si>
-    <t>NOT NULL, UNIQUE</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>パスワード</t>
-  </si>
-  <si>
-    <t>role</t>
-  </si>
-  <si>
-    <t>ユーザーの役割</t>
-  </si>
-  <si>
-    <t>管理者/一般</t>
-  </si>
-  <si>
-    <t>created_at</t>
-  </si>
-  <si>
-    <t>作成日時</t>
-  </si>
-  <si>
-    <t>DATETIME</t>
-  </si>
-  <si>
-    <t>更新日時</t>
-  </si>
-  <si>
-    <t>削除日時</t>
-  </si>
-  <si>
-    <t>論理削除用</t>
   </si>
   <si>
     <t>項目名</t>
@@ -237,7 +240,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -245,6 +248,11 @@
     </font>
     <font>
       <sz val="12"/>
+      <color indexed="8"/>
+      <name val="ヒラギノ角ゴ ProN W3"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color indexed="8"/>
       <name val="ヒラギノ角ゴ ProN W3"/>
     </font>
@@ -262,7 +270,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -371,22 +379,7 @@
         <color indexed="10"/>
       </top>
       <bottom style="dotted">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="8"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -398,7 +391,7 @@
         <color indexed="8"/>
       </right>
       <top style="dotted">
-        <color indexed="8"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
         <color indexed="10"/>
@@ -417,21 +410,6 @@
       </top>
       <bottom style="medium">
         <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top style="dotted">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -546,7 +524,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -580,11 +558,11 @@
     <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
@@ -595,13 +573,7 @@
     <xf numFmtId="0" fontId="0" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -610,46 +582,46 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -681,15 +653,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>175289</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>76249</xdr:rowOff>
+      <xdr:colOff>246956</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>144785</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>175289</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>198892</xdr:rowOff>
+      <xdr:colOff>246956</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>14062</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -698,8 +670,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1419889" y="912544"/>
-          <a:ext cx="1" cy="376009"/>
+          <a:off x="1491556" y="1994540"/>
+          <a:ext cx="1" cy="376008"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -727,15 +699,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>176026</xdr:colOff>
+      <xdr:colOff>142238</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>76249</xdr:rowOff>
+      <xdr:rowOff>215248</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>176026</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>198892</xdr:rowOff>
+      <xdr:colOff>142238</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>84525</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -744,8 +716,100 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3909826" y="912544"/>
-          <a:ext cx="1" cy="376009"/>
+          <a:off x="3876038" y="1051543"/>
+          <a:ext cx="1" cy="376008"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1236421</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>137888</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1242300</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>137888</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="線"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3725621" y="1227548"/>
+          <a:ext cx="1250480" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1244600</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>19777</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1244599</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>19777</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="線"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1244599" y="2122897"/>
+          <a:ext cx="3733801" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -773,86 +837,35 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>942123</xdr:colOff>
+      <xdr:colOff>1063533</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>200894</xdr:rowOff>
+      <xdr:rowOff>220792</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1097949</xdr:colOff>
+      <xdr:colOff>1241502</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>74247</xdr:rowOff>
+      <xdr:rowOff>145397</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="矢印10"/>
+        <xdr:cNvPr id="6" name="線"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4675923" y="1037189"/>
-          <a:ext cx="155827" cy="126719"/>
+        <a:xfrm flipV="1">
+          <a:off x="4797332" y="1057087"/>
+          <a:ext cx="177971" cy="177971"/>
         </a:xfrm>
-        <a:custGeom>
+        <a:prstGeom prst="line">
           <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst>
-            <a:cxn ang="0">
-              <a:pos x="wd2" y="hd2"/>
-            </a:cxn>
-            <a:cxn ang="5400000">
-              <a:pos x="wd2" y="hd2"/>
-            </a:cxn>
-            <a:cxn ang="10800000">
-              <a:pos x="wd2" y="hd2"/>
-            </a:cxn>
-            <a:cxn ang="16200000">
-              <a:pos x="wd2" y="hd2"/>
-            </a:cxn>
-          </a:cxnLst>
-          <a:rect l="0" t="0" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="21600" h="21600" fill="norm" stroke="1" extrusionOk="0">
-              <a:moveTo>
-                <a:pt x="9745" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="7428" y="3887"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="12357" y="8319"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="0" y="8319"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="0" y="13287"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="12286" y="13287"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="7418" y="17725"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="9755" y="21600"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="21600" y="10803"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="9745" y="0"/>
-              </a:lnTo>
-              <a:close/>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr val="000000"/>
-        </a:solidFill>
+        </a:prstGeom>
+        <a:noFill/>
         <a:ln w="12700" cap="flat">
-          <a:noFill/>
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
           <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst/>
@@ -869,87 +882,36 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>934953</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>200894</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1059042</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>94427</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1090779</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>74247</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1225013</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>7033</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="矢印10"/>
+        <xdr:cNvPr id="7" name="線"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2179553" y="1037189"/>
-          <a:ext cx="155827" cy="126719"/>
+          <a:off x="4792842" y="1184087"/>
+          <a:ext cx="165972" cy="165972"/>
         </a:xfrm>
-        <a:custGeom>
+        <a:prstGeom prst="line">
           <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst>
-            <a:cxn ang="0">
-              <a:pos x="wd2" y="hd2"/>
-            </a:cxn>
-            <a:cxn ang="5400000">
-              <a:pos x="wd2" y="hd2"/>
-            </a:cxn>
-            <a:cxn ang="10800000">
-              <a:pos x="wd2" y="hd2"/>
-            </a:cxn>
-            <a:cxn ang="16200000">
-              <a:pos x="wd2" y="hd2"/>
-            </a:cxn>
-          </a:cxnLst>
-          <a:rect l="0" t="0" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="21600" h="21600" fill="norm" stroke="1" extrusionOk="0">
-              <a:moveTo>
-                <a:pt x="9745" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="7428" y="3887"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="12357" y="8319"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="0" y="8319"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="0" y="13287"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="12286" y="13287"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="7418" y="17725"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="9755" y="21600"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="21600" y="10803"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="9745" y="0"/>
-              </a:lnTo>
-              <a:close/>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr val="000000"/>
-        </a:solidFill>
+        </a:prstGeom>
+        <a:noFill/>
         <a:ln w="12700" cap="flat">
-          <a:noFill/>
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
           <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst/>
@@ -959,6 +921,274 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1047043</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>55800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1225013</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>233770</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="線"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4780843" y="1905555"/>
+          <a:ext cx="177971" cy="177971"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1047043</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>30618</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1213014</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>196588</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="線"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4780843" y="2133738"/>
+          <a:ext cx="165972" cy="165971"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>876270</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>106138</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>184165</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>174082</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="⚪︎"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4610070" y="1955893"/>
+          <a:ext cx="552496" cy="321310"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1400" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1400" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>⚪︎</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>859781</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>236948</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>167676</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>51528</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="⚪︎"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4593581" y="1073243"/>
+          <a:ext cx="552496" cy="321311"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1400" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1400" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>⚪︎</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2079,7 +2309,7 @@
       <c r="C4" t="s" s="5">
         <v>8</v>
       </c>
-      <c r="D4" s="10"/>
+      <c r="D4" s="6"/>
       <c r="E4" t="s" s="5">
         <v>9</v>
       </c>
@@ -2090,11 +2320,11 @@
       <c r="A5" t="s" s="3">
         <v>10</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" t="s" s="12">
+      <c r="B5" s="10"/>
+      <c r="C5" t="s" s="11">
         <v>11</v>
       </c>
-      <c r="D5" s="13"/>
+      <c r="D5" s="6"/>
       <c r="E5" t="s" s="5">
         <v>12</v>
       </c>
@@ -2105,7 +2335,7 @@
       <c r="A6" t="s" s="3">
         <v>13</v>
       </c>
-      <c r="B6" s="14"/>
+      <c r="B6" s="12"/>
       <c r="C6" t="s" s="3">
         <v>14</v>
       </c>
@@ -2120,12 +2350,12 @@
       <c r="A7" t="s" s="3">
         <v>16</v>
       </c>
-      <c r="B7" s="14"/>
+      <c r="B7" s="12"/>
       <c r="C7" t="s" s="3">
         <v>17</v>
       </c>
       <c r="D7" s="4"/>
-      <c r="E7" t="s" s="12">
+      <c r="E7" t="s" s="11">
         <v>4</v>
       </c>
       <c r="F7" s="7"/>
@@ -2135,39 +2365,39 @@
       <c r="A8" t="s" s="3">
         <v>14</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="17"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="15"/>
       <c r="E8" t="s" s="3">
         <v>14</v>
       </c>
-      <c r="F8" s="15"/>
+      <c r="F8" s="13"/>
       <c r="G8" s="8"/>
     </row>
     <row r="9" ht="19.95" customHeight="1">
       <c r="A9" t="s" s="3">
         <v>17</v>
       </c>
-      <c r="B9" s="15"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="8"/>
-      <c r="D9" s="17"/>
+      <c r="D9" s="15"/>
       <c r="E9" t="s" s="3">
         <v>17</v>
       </c>
-      <c r="F9" s="15"/>
+      <c r="F9" s="13"/>
       <c r="G9" s="8"/>
     </row>
     <row r="10" ht="19.15" customHeight="1">
-      <c r="A10" s="18"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
-      <c r="E10" s="16"/>
+      <c r="E10" s="14"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
     </row>
     <row r="11" ht="18.3" customHeight="1">
-      <c r="A11" s="19"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
@@ -2212,7 +2442,7 @@
       <c r="G15" s="8"/>
     </row>
     <row r="16" ht="18.3" customHeight="1">
-      <c r="A16" s="19"/>
+      <c r="A16" s="17"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -2221,7 +2451,7 @@
       <c r="G16" s="8"/>
     </row>
     <row r="17" ht="18.3" customHeight="1">
-      <c r="A17" s="19"/>
+      <c r="A17" s="17"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
@@ -2230,7 +2460,7 @@
       <c r="G17" s="8"/>
     </row>
     <row r="18" ht="18.3" customHeight="1">
-      <c r="A18" s="19"/>
+      <c r="A18" s="17"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -2239,7 +2469,7 @@
       <c r="G18" s="8"/>
     </row>
     <row r="19" ht="18.3" customHeight="1">
-      <c r="A19" s="19"/>
+      <c r="A19" s="17"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -2248,7 +2478,7 @@
       <c r="G19" s="8"/>
     </row>
     <row r="20" ht="18.3" customHeight="1">
-      <c r="A20" s="19"/>
+      <c r="A20" s="17"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -2257,7 +2487,7 @@
       <c r="G20" s="8"/>
     </row>
     <row r="21" ht="18.3" customHeight="1">
-      <c r="A21" s="19"/>
+      <c r="A21" s="17"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -2266,7 +2496,7 @@
       <c r="G21" s="8"/>
     </row>
     <row r="22" ht="18.3" customHeight="1">
-      <c r="A22" s="19"/>
+      <c r="A22" s="17"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -2298,557 +2528,557 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.6" defaultRowHeight="23" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="3" width="19.6016" style="20" customWidth="1"/>
-    <col min="4" max="4" width="14.7969" style="20" customWidth="1"/>
-    <col min="5" max="5" width="38.8438" style="20" customWidth="1"/>
-    <col min="6" max="6" width="43.4453" style="20" customWidth="1"/>
-    <col min="7" max="7" width="19.6016" style="20" customWidth="1"/>
-    <col min="8" max="16384" width="19.6016" style="20" customWidth="1"/>
+    <col min="1" max="3" width="19.6016" style="18" customWidth="1"/>
+    <col min="4" max="4" width="14.7969" style="18" customWidth="1"/>
+    <col min="5" max="5" width="38.8438" style="18" customWidth="1"/>
+    <col min="6" max="6" width="43.4453" style="18" customWidth="1"/>
+    <col min="7" max="7" width="19.6016" style="18" customWidth="1"/>
+    <col min="8" max="16384" width="19.6016" style="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.65" customHeight="1">
-      <c r="A1" t="s" s="21">
+      <c r="A1" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
     </row>
     <row r="2" ht="16.95" customHeight="1">
-      <c r="A2" t="s" s="23">
+      <c r="A2" t="s" s="21">
         <v>19</v>
       </c>
-      <c r="B2" t="s" s="23">
+      <c r="B2" t="s" s="21">
         <v>20</v>
       </c>
-      <c r="C2" t="s" s="23">
+      <c r="C2" t="s" s="21">
         <v>21</v>
       </c>
-      <c r="D2" t="s" s="23">
+      <c r="D2" t="s" s="21">
         <v>22</v>
       </c>
-      <c r="E2" t="s" s="23">
+      <c r="E2" t="s" s="21">
         <v>23</v>
       </c>
-      <c r="F2" t="s" s="23">
+      <c r="F2" t="s" s="21">
         <v>24</v>
       </c>
-      <c r="G2" t="s" s="23">
+      <c r="G2" t="s" s="21">
         <v>25</v>
       </c>
     </row>
     <row r="3" ht="16.95" customHeight="1">
-      <c r="A3" t="s" s="23">
+      <c r="A3" t="s" s="21">
         <v>4</v>
       </c>
-      <c r="B3" t="s" s="23">
+      <c r="B3" t="s" s="21">
         <v>26</v>
       </c>
-      <c r="C3" t="s" s="23">
+      <c r="C3" t="s" s="21">
         <v>27</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" t="s" s="23">
+      <c r="D3" s="22"/>
+      <c r="E3" t="s" s="21">
         <v>28</v>
       </c>
-      <c r="F3" t="s" s="23">
+      <c r="F3" t="s" s="21">
         <v>29</v>
       </c>
-      <c r="G3" s="24"/>
+      <c r="G3" s="22"/>
     </row>
     <row r="4" ht="16.95" customHeight="1">
-      <c r="A4" t="s" s="23">
+      <c r="A4" t="s" s="21">
         <v>30</v>
       </c>
-      <c r="B4" t="s" s="23">
+      <c r="B4" t="s" s="21">
         <v>31</v>
       </c>
-      <c r="C4" t="s" s="23">
+      <c r="C4" t="s" s="21">
         <v>32</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="23">
         <v>255</v>
       </c>
-      <c r="E4" t="s" s="23">
+      <c r="E4" t="s" s="21">
         <v>33</v>
       </c>
-      <c r="F4" s="26"/>
-      <c r="G4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="22"/>
     </row>
     <row r="5" ht="16.95" customHeight="1">
-      <c r="A5" t="s" s="23">
+      <c r="A5" t="s" s="21">
         <v>34</v>
       </c>
-      <c r="B5" t="s" s="23">
+      <c r="B5" t="s" s="21">
         <v>35</v>
       </c>
-      <c r="C5" t="s" s="23">
+      <c r="C5" t="s" s="21">
         <v>32</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="23">
         <v>255</v>
       </c>
-      <c r="E5" t="s" s="23">
+      <c r="E5" t="s" s="21">
         <v>36</v>
       </c>
-      <c r="F5" s="26"/>
-      <c r="G5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="22"/>
     </row>
     <row r="6" ht="16.95" customHeight="1">
-      <c r="A6" t="s" s="23">
+      <c r="A6" t="s" s="21">
         <v>37</v>
       </c>
-      <c r="B6" t="s" s="23">
+      <c r="B6" t="s" s="21">
         <v>38</v>
       </c>
-      <c r="C6" t="s" s="23">
+      <c r="C6" t="s" s="21">
         <v>32</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="23">
         <v>255</v>
       </c>
-      <c r="E6" t="s" s="23">
+      <c r="E6" t="s" s="21">
         <v>33</v>
       </c>
-      <c r="F6" s="26"/>
-      <c r="G6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="22"/>
     </row>
     <row r="7" ht="16.95" customHeight="1">
-      <c r="A7" t="s" s="23">
+      <c r="A7" t="s" s="21">
         <v>39</v>
       </c>
-      <c r="B7" t="s" s="23">
+      <c r="B7" t="s" s="21">
         <v>40</v>
       </c>
-      <c r="C7" t="s" s="23">
+      <c r="C7" t="s" s="21">
         <v>32</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D7" s="23">
         <v>50</v>
       </c>
-      <c r="E7" t="s" s="23">
+      <c r="E7" t="s" s="21">
         <v>33</v>
       </c>
-      <c r="F7" t="s" s="23">
+      <c r="F7" t="s" s="21">
         <v>41</v>
       </c>
-      <c r="G7" s="24"/>
+      <c r="G7" s="22"/>
     </row>
     <row r="8" ht="16.95" customHeight="1">
-      <c r="A8" t="s" s="23">
+      <c r="A8" t="s" s="21">
         <v>42</v>
       </c>
-      <c r="B8" t="s" s="23">
+      <c r="B8" t="s" s="21">
         <v>43</v>
       </c>
-      <c r="C8" t="s" s="23">
+      <c r="C8" t="s" s="21">
         <v>44</v>
       </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="24"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="22"/>
     </row>
     <row r="9" ht="16.95" customHeight="1">
-      <c r="A9" t="s" s="23">
+      <c r="A9" t="s" s="21">
         <v>14</v>
       </c>
-      <c r="B9" t="s" s="23">
+      <c r="B9" t="s" s="21">
         <v>45</v>
       </c>
-      <c r="C9" t="s" s="23">
+      <c r="C9" t="s" s="21">
         <v>44</v>
       </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="24"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="22"/>
     </row>
     <row r="10" ht="16.95" customHeight="1">
-      <c r="A10" t="s" s="23">
+      <c r="A10" t="s" s="21">
         <v>17</v>
       </c>
-      <c r="B10" t="s" s="23">
+      <c r="B10" t="s" s="21">
         <v>46</v>
       </c>
-      <c r="C10" t="s" s="23">
+      <c r="C10" t="s" s="21">
         <v>44</v>
       </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" t="s" s="23">
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" t="s" s="21">
         <v>47</v>
       </c>
-      <c r="G10" s="24"/>
+      <c r="G10" s="22"/>
     </row>
     <row r="11" ht="16.65" customHeight="1">
-      <c r="A11" s="27"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="28"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="26"/>
     </row>
     <row r="12" ht="16.65" customHeight="1">
-      <c r="A12" t="s" s="29">
-        <v>2</v>
-      </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="31"/>
+      <c r="A12" t="s" s="27">
+        <v>48</v>
+      </c>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="29"/>
     </row>
     <row r="13" ht="16.95" customHeight="1">
-      <c r="A13" t="s" s="23">
-        <v>48</v>
-      </c>
-      <c r="B13" s="26"/>
-      <c r="C13" t="s" s="23">
+      <c r="A13" t="s" s="21">
+        <v>49</v>
+      </c>
+      <c r="B13" s="24"/>
+      <c r="C13" t="s" s="21">
         <v>21</v>
       </c>
-      <c r="D13" t="s" s="23">
+      <c r="D13" t="s" s="21">
         <v>22</v>
       </c>
-      <c r="E13" t="s" s="23">
+      <c r="E13" t="s" s="21">
         <v>23</v>
       </c>
-      <c r="F13" t="s" s="23">
+      <c r="F13" t="s" s="21">
         <v>24</v>
       </c>
-      <c r="G13" t="s" s="23">
+      <c r="G13" t="s" s="21">
         <v>25</v>
       </c>
     </row>
     <row r="14" ht="16.95" customHeight="1">
-      <c r="A14" t="s" s="23">
+      <c r="A14" t="s" s="21">
+        <v>50</v>
+      </c>
+      <c r="B14" t="s" s="21">
+        <v>51</v>
+      </c>
+      <c r="C14" t="s" s="21">
+        <v>27</v>
+      </c>
+      <c r="D14" s="22"/>
+      <c r="E14" t="s" s="21">
+        <v>28</v>
+      </c>
+      <c r="F14" t="s" s="21">
+        <v>29</v>
+      </c>
+      <c r="G14" s="22"/>
+    </row>
+    <row r="15" ht="16.95" customHeight="1">
+      <c r="A15" t="s" s="21">
+        <v>52</v>
+      </c>
+      <c r="B15" t="s" s="21">
+        <v>53</v>
+      </c>
+      <c r="C15" t="s" s="21">
+        <v>32</v>
+      </c>
+      <c r="D15" s="23">
+        <v>255</v>
+      </c>
+      <c r="E15" t="s" s="21">
+        <v>33</v>
+      </c>
+      <c r="F15" s="24"/>
+      <c r="G15" s="22"/>
+    </row>
+    <row r="16" ht="16.95" customHeight="1">
+      <c r="A16" t="s" s="21">
+        <v>54</v>
+      </c>
+      <c r="B16" t="s" s="21">
+        <v>55</v>
+      </c>
+      <c r="C16" t="s" s="21">
+        <v>32</v>
+      </c>
+      <c r="D16" s="23">
+        <v>50</v>
+      </c>
+      <c r="E16" t="s" s="21">
+        <v>33</v>
+      </c>
+      <c r="F16" t="s" s="21">
+        <v>56</v>
+      </c>
+      <c r="G16" s="22"/>
+    </row>
+    <row r="17" ht="16.95" customHeight="1">
+      <c r="A17" t="s" s="21">
+        <v>42</v>
+      </c>
+      <c r="B17" t="s" s="21">
+        <v>43</v>
+      </c>
+      <c r="C17" t="s" s="21">
+        <v>44</v>
+      </c>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="22"/>
+    </row>
+    <row r="18" ht="16.95" customHeight="1">
+      <c r="A18" t="s" s="21">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s" s="21">
+        <v>45</v>
+      </c>
+      <c r="C18" t="s" s="21">
+        <v>44</v>
+      </c>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="22"/>
+    </row>
+    <row r="19" ht="16.95" customHeight="1">
+      <c r="A19" t="s" s="21">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s" s="21">
+        <v>46</v>
+      </c>
+      <c r="C19" t="s" s="21">
+        <v>44</v>
+      </c>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" t="s" s="21">
+        <v>47</v>
+      </c>
+      <c r="G19" s="22"/>
+    </row>
+    <row r="20" ht="16.65" customHeight="1">
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="26"/>
+    </row>
+    <row r="21" ht="16.65" customHeight="1">
+      <c r="A21" t="s" s="30">
+        <v>3</v>
+      </c>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="29"/>
+    </row>
+    <row r="22" ht="16.95" customHeight="1">
+      <c r="A22" t="s" s="21">
         <v>49</v>
       </c>
-      <c r="B14" t="s" s="23">
-        <v>50</v>
-      </c>
-      <c r="C14" t="s" s="23">
+      <c r="B22" s="24"/>
+      <c r="C22" t="s" s="21">
+        <v>21</v>
+      </c>
+      <c r="D22" t="s" s="21">
+        <v>22</v>
+      </c>
+      <c r="E22" t="s" s="21">
+        <v>23</v>
+      </c>
+      <c r="F22" t="s" s="21">
+        <v>24</v>
+      </c>
+      <c r="G22" t="s" s="21">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" ht="16.95" customHeight="1">
+      <c r="A23" t="s" s="21">
+        <v>57</v>
+      </c>
+      <c r="B23" t="s" s="21">
+        <v>58</v>
+      </c>
+      <c r="C23" t="s" s="21">
         <v>27</v>
       </c>
-      <c r="D14" s="24"/>
-      <c r="E14" t="s" s="23">
+      <c r="D23" s="22"/>
+      <c r="E23" t="s" s="21">
         <v>28</v>
       </c>
-      <c r="F14" t="s" s="23">
+      <c r="F23" t="s" s="21">
         <v>29</v>
       </c>
-      <c r="G14" s="24"/>
-    </row>
-    <row r="15" ht="16.95" customHeight="1">
-      <c r="A15" t="s" s="23">
+      <c r="G23" s="22"/>
+    </row>
+    <row r="24" ht="16.95" customHeight="1">
+      <c r="A24" t="s" s="21">
+        <v>9</v>
+      </c>
+      <c r="B24" t="s" s="21">
+        <v>59</v>
+      </c>
+      <c r="C24" t="s" s="21">
+        <v>60</v>
+      </c>
+      <c r="D24" s="22"/>
+      <c r="E24" t="s" s="21">
+        <v>33</v>
+      </c>
+      <c r="F24" s="24"/>
+      <c r="G24" s="22"/>
+    </row>
+    <row r="25" ht="16.95" customHeight="1">
+      <c r="A25" t="s" s="21">
+        <v>61</v>
+      </c>
+      <c r="B25" t="s" s="21">
+        <v>62</v>
+      </c>
+      <c r="C25" t="s" s="21">
+        <v>32</v>
+      </c>
+      <c r="D25" s="31">
+        <v>10</v>
+      </c>
+      <c r="E25" t="s" s="21">
+        <v>33</v>
+      </c>
+      <c r="F25" t="s" s="21">
+        <v>63</v>
+      </c>
+      <c r="G25" s="22"/>
+    </row>
+    <row r="26" ht="16.95" customHeight="1">
+      <c r="A26" t="s" s="21">
+        <v>64</v>
+      </c>
+      <c r="B26" t="s" s="21">
         <v>51</v>
       </c>
-      <c r="B15" t="s" s="23">
-        <v>52</v>
-      </c>
-      <c r="C15" t="s" s="23">
+      <c r="C26" t="s" s="21">
+        <v>27</v>
+      </c>
+      <c r="D26" s="22"/>
+      <c r="E26" t="s" s="21">
+        <v>65</v>
+      </c>
+      <c r="F26" t="s" s="21">
+        <v>66</v>
+      </c>
+      <c r="G26" s="22"/>
+    </row>
+    <row r="27" ht="16.95" customHeight="1">
+      <c r="A27" t="s" s="21">
+        <v>67</v>
+      </c>
+      <c r="B27" t="s" s="21">
+        <v>68</v>
+      </c>
+      <c r="C27" t="s" s="21">
         <v>32</v>
       </c>
-      <c r="D15" s="25">
+      <c r="D27" s="23">
         <v>255</v>
       </c>
-      <c r="E15" t="s" s="23">
+      <c r="E27" s="22"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="22"/>
+    </row>
+    <row r="28" ht="16.95" customHeight="1">
+      <c r="A28" t="s" s="21">
+        <v>15</v>
+      </c>
+      <c r="B28" t="s" s="21">
+        <v>69</v>
+      </c>
+      <c r="C28" t="s" s="21">
+        <v>70</v>
+      </c>
+      <c r="D28" t="s" s="32">
+        <v>71</v>
+      </c>
+      <c r="E28" t="s" s="21">
         <v>33</v>
       </c>
-      <c r="F15" s="26"/>
-      <c r="G15" s="24"/>
-    </row>
-    <row r="16" ht="16.95" customHeight="1">
-      <c r="A16" t="s" s="23">
-        <v>53</v>
-      </c>
-      <c r="B16" t="s" s="23">
-        <v>54</v>
-      </c>
-      <c r="C16" t="s" s="23">
-        <v>32</v>
-      </c>
-      <c r="D16" s="25">
-        <v>50</v>
-      </c>
-      <c r="E16" t="s" s="23">
-        <v>33</v>
-      </c>
-      <c r="F16" t="s" s="23">
-        <v>55</v>
-      </c>
-      <c r="G16" s="24"/>
-    </row>
-    <row r="17" ht="16.95" customHeight="1">
-      <c r="A17" t="s" s="23">
+      <c r="F28" s="24"/>
+      <c r="G28" s="22"/>
+    </row>
+    <row r="29" ht="16.95" customHeight="1">
+      <c r="A29" t="s" s="21">
+        <v>4</v>
+      </c>
+      <c r="B29" t="s" s="21">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s" s="21">
+        <v>27</v>
+      </c>
+      <c r="D29" s="22"/>
+      <c r="E29" t="s" s="21">
+        <v>72</v>
+      </c>
+      <c r="F29" t="s" s="21">
+        <v>66</v>
+      </c>
+      <c r="G29" s="22"/>
+    </row>
+    <row r="30" ht="16.95" customHeight="1">
+      <c r="A30" t="s" s="21">
         <v>42</v>
       </c>
-      <c r="B17" t="s" s="23">
+      <c r="B30" t="s" s="21">
         <v>43</v>
       </c>
-      <c r="C17" t="s" s="23">
+      <c r="C30" t="s" s="21">
         <v>44</v>
       </c>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="24"/>
-    </row>
-    <row r="18" ht="16.95" customHeight="1">
-      <c r="A18" t="s" s="23">
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="22"/>
+    </row>
+    <row r="31" ht="16.95" customHeight="1">
+      <c r="A31" t="s" s="21">
         <v>14</v>
       </c>
-      <c r="B18" t="s" s="23">
+      <c r="B31" t="s" s="21">
         <v>45</v>
       </c>
-      <c r="C18" t="s" s="23">
+      <c r="C31" t="s" s="21">
         <v>44</v>
       </c>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="24"/>
-    </row>
-    <row r="19" ht="16.95" customHeight="1">
-      <c r="A19" t="s" s="23">
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="22"/>
+    </row>
+    <row r="32" ht="16.95" customHeight="1">
+      <c r="A32" t="s" s="21">
         <v>17</v>
       </c>
-      <c r="B19" t="s" s="23">
+      <c r="B32" t="s" s="21">
         <v>46</v>
       </c>
-      <c r="C19" t="s" s="23">
+      <c r="C32" t="s" s="21">
         <v>44</v>
       </c>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" t="s" s="23">
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" t="s" s="21">
         <v>47</v>
       </c>
-      <c r="G19" s="24"/>
-    </row>
-    <row r="20" ht="16.65" customHeight="1">
-      <c r="A20" s="27"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="28"/>
-    </row>
-    <row r="21" ht="16.65" customHeight="1">
-      <c r="A21" t="s" s="32">
-        <v>3</v>
-      </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="31"/>
-    </row>
-    <row r="22" ht="16.95" customHeight="1">
-      <c r="A22" t="s" s="23">
-        <v>48</v>
-      </c>
-      <c r="B22" s="26"/>
-      <c r="C22" t="s" s="23">
-        <v>21</v>
-      </c>
-      <c r="D22" t="s" s="23">
-        <v>22</v>
-      </c>
-      <c r="E22" t="s" s="23">
-        <v>23</v>
-      </c>
-      <c r="F22" t="s" s="23">
-        <v>24</v>
-      </c>
-      <c r="G22" t="s" s="23">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" ht="16.95" customHeight="1">
-      <c r="A23" t="s" s="23">
-        <v>56</v>
-      </c>
-      <c r="B23" t="s" s="23">
-        <v>57</v>
-      </c>
-      <c r="C23" t="s" s="23">
-        <v>27</v>
-      </c>
-      <c r="D23" s="24"/>
-      <c r="E23" t="s" s="23">
-        <v>28</v>
-      </c>
-      <c r="F23" t="s" s="23">
-        <v>29</v>
-      </c>
-      <c r="G23" s="24"/>
-    </row>
-    <row r="24" ht="16.95" customHeight="1">
-      <c r="A24" t="s" s="23">
-        <v>9</v>
-      </c>
-      <c r="B24" t="s" s="23">
-        <v>58</v>
-      </c>
-      <c r="C24" t="s" s="23">
-        <v>59</v>
-      </c>
-      <c r="D24" s="24"/>
-      <c r="E24" t="s" s="23">
-        <v>33</v>
-      </c>
-      <c r="F24" s="26"/>
-      <c r="G24" s="24"/>
-    </row>
-    <row r="25" ht="16.95" customHeight="1">
-      <c r="A25" t="s" s="23">
-        <v>60</v>
-      </c>
-      <c r="B25" t="s" s="23">
-        <v>61</v>
-      </c>
-      <c r="C25" t="s" s="23">
-        <v>32</v>
-      </c>
-      <c r="D25" s="33">
-        <v>10</v>
-      </c>
-      <c r="E25" t="s" s="23">
-        <v>33</v>
-      </c>
-      <c r="F25" t="s" s="23">
-        <v>62</v>
-      </c>
-      <c r="G25" s="24"/>
-    </row>
-    <row r="26" ht="16.95" customHeight="1">
-      <c r="A26" t="s" s="23">
-        <v>63</v>
-      </c>
-      <c r="B26" t="s" s="23">
-        <v>50</v>
-      </c>
-      <c r="C26" t="s" s="23">
-        <v>27</v>
-      </c>
-      <c r="D26" s="24"/>
-      <c r="E26" t="s" s="23">
-        <v>64</v>
-      </c>
-      <c r="F26" t="s" s="23">
-        <v>65</v>
-      </c>
-      <c r="G26" s="24"/>
-    </row>
-    <row r="27" ht="16.95" customHeight="1">
-      <c r="A27" t="s" s="23">
-        <v>66</v>
-      </c>
-      <c r="B27" t="s" s="23">
-        <v>67</v>
-      </c>
-      <c r="C27" t="s" s="23">
-        <v>32</v>
-      </c>
-      <c r="D27" s="25">
-        <v>255</v>
-      </c>
-      <c r="E27" s="24"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="24"/>
-    </row>
-    <row r="28" ht="16.95" customHeight="1">
-      <c r="A28" t="s" s="23">
-        <v>15</v>
-      </c>
-      <c r="B28" t="s" s="23">
-        <v>68</v>
-      </c>
-      <c r="C28" t="s" s="23">
-        <v>69</v>
-      </c>
-      <c r="D28" t="s" s="34">
-        <v>70</v>
-      </c>
-      <c r="E28" t="s" s="23">
-        <v>33</v>
-      </c>
-      <c r="F28" s="26"/>
-      <c r="G28" s="24"/>
-    </row>
-    <row r="29" ht="16.95" customHeight="1">
-      <c r="A29" t="s" s="23">
-        <v>4</v>
-      </c>
-      <c r="B29" t="s" s="23">
-        <v>26</v>
-      </c>
-      <c r="C29" t="s" s="23">
-        <v>27</v>
-      </c>
-      <c r="D29" s="24"/>
-      <c r="E29" t="s" s="23">
-        <v>71</v>
-      </c>
-      <c r="F29" t="s" s="23">
-        <v>65</v>
-      </c>
-      <c r="G29" s="24"/>
-    </row>
-    <row r="30" ht="16.95" customHeight="1">
-      <c r="A30" t="s" s="23">
-        <v>42</v>
-      </c>
-      <c r="B30" t="s" s="23">
-        <v>43</v>
-      </c>
-      <c r="C30" t="s" s="23">
-        <v>44</v>
-      </c>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="24"/>
-    </row>
-    <row r="31" ht="16.95" customHeight="1">
-      <c r="A31" t="s" s="23">
-        <v>14</v>
-      </c>
-      <c r="B31" t="s" s="23">
-        <v>45</v>
-      </c>
-      <c r="C31" t="s" s="23">
-        <v>44</v>
-      </c>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="24"/>
-    </row>
-    <row r="32" ht="16.95" customHeight="1">
-      <c r="A32" t="s" s="23">
-        <v>17</v>
-      </c>
-      <c r="B32" t="s" s="23">
-        <v>46</v>
-      </c>
-      <c r="C32" t="s" s="23">
-        <v>44</v>
-      </c>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" t="s" s="23">
-        <v>47</v>
-      </c>
-      <c r="G32" s="24"/>
+      <c r="G32" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>

--- a/設計（ER図、テーブル定義書）.xlsx
+++ b/設計（ER図、テーブル定義書）.xlsx
@@ -6,13 +6,13 @@
   </bookViews>
   <sheets>
     <sheet name="ER図" sheetId="1" r:id="rId4"/>
-    <sheet name="シート1" sheetId="2" r:id="rId5"/>
+    <sheet name="テーブル定義書" sheetId="2" r:id="rId5"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="71">
   <si>
     <t>ER図</t>
   </si>
@@ -20,7 +20,7 @@
     <t xml:space="preserve">users </t>
   </si>
   <si>
-    <t>Category</t>
+    <t>category</t>
   </si>
   <si>
     <t>income</t>
@@ -32,7 +32,7 @@
     <t xml:space="preserve">categori_id </t>
   </si>
   <si>
-    <t>income_id</t>
+    <t>id</t>
   </si>
   <si>
     <t xml:space="preserve"> user_name</t>
@@ -50,24 +50,33 @@
     <t xml:space="preserve"> category_type</t>
   </si>
   <si>
-    <t xml:space="preserve">    categori_id</t>
+    <t>type</t>
   </si>
   <si>
     <t xml:space="preserve"> password</t>
   </si>
   <si>
+    <t>created_at</t>
+  </si>
+  <si>
+    <t>category_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> role</t>
+  </si>
+  <si>
     <t>updated_at</t>
   </si>
   <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>deleted_at</t>
+  </si>
+  <si>
     <t>amount</t>
   </si>
   <si>
-    <t xml:space="preserve"> role</t>
-  </si>
-  <si>
-    <t>deleted_at</t>
-  </si>
-  <si>
     <t>users</t>
   </si>
   <si>
@@ -140,9 +149,6 @@
     <t>管理者/一般</t>
   </si>
   <si>
-    <t>created_at</t>
-  </si>
-  <si>
     <t>作成日時</t>
   </si>
   <si>
@@ -185,9 +191,6 @@
     <t>収入/支出</t>
   </si>
   <si>
-    <t>d</t>
-  </si>
-  <si>
     <t>収支ID</t>
   </si>
   <si>
@@ -197,25 +200,16 @@
     <t>DATE</t>
   </si>
   <si>
-    <t>type</t>
-  </si>
-  <si>
     <t>収支区分</t>
   </si>
   <si>
     <t>収入または支出</t>
   </si>
   <si>
-    <t>category_id</t>
-  </si>
-  <si>
     <t>FOREIGN KEY (categori)</t>
   </si>
   <si>
     <t>外部キー</t>
-  </si>
-  <si>
-    <t>description</t>
   </si>
   <si>
     <t>摘要</t>
@@ -252,14 +246,14 @@
       <name val="ヒラギノ角ゴ ProN W3"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="游ゴシック体 ミディアム"/>
+    </font>
+    <font>
       <sz val="14"/>
       <color indexed="8"/>
       <name val="ヒラギノ角ゴ ProN W3"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="游ゴシック体 ミディアム"/>
     </font>
   </fonts>
   <fills count="2">
@@ -270,7 +264,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -463,10 +457,25 @@
         <color indexed="10"/>
       </left>
       <right style="medium">
-        <color indexed="9"/>
+        <color indexed="8"/>
       </right>
       <top style="thin">
         <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
       </top>
       <bottom style="thin">
         <color indexed="10"/>
@@ -524,7 +533,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -561,6 +570,9 @@
     <xf numFmtId="49" fontId="0" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -576,52 +588,55 @@
     <xf numFmtId="0" fontId="0" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -653,15 +668,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>246956</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>144785</xdr:rowOff>
+      <xdr:colOff>330566</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>79424</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>246956</xdr:colOff>
+      <xdr:colOff>330566</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>14062</xdr:rowOff>
+      <xdr:rowOff>202066</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -670,7 +685,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1491556" y="1994540"/>
+          <a:off x="1575166" y="2182544"/>
           <a:ext cx="1" cy="376008"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -790,16 +805,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1244600</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>19777</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>20412</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1244599</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>19777</xdr:rowOff>
+      <xdr:colOff>1244600</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>20412</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -808,8 +823,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1244599" y="2122897"/>
-          <a:ext cx="3733801" cy="1"/>
+          <a:off x="1244600" y="2376897"/>
+          <a:ext cx="3733800" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -930,14 +945,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1047043</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>55800</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>97667</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1225013</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>233770</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>22272</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -946,7 +961,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4780843" y="1905555"/>
+          <a:off x="4780843" y="2200787"/>
           <a:ext cx="177971" cy="177971"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -975,15 +990,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1047043</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>30618</xdr:rowOff>
+      <xdr:colOff>1069532</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>31252</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1213014</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>196588</xdr:rowOff>
+      <xdr:colOff>1235503</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>197223</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -992,8 +1007,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4780843" y="2133738"/>
-          <a:ext cx="165972" cy="165971"/>
+          <a:off x="4803332" y="2387737"/>
+          <a:ext cx="165972" cy="165972"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1022,14 +1037,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>876270</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>106138</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>119472</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>184165</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>174082</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>187417</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1038,8 +1053,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4610070" y="1955893"/>
-          <a:ext cx="552496" cy="321310"/>
+          <a:off x="4610070" y="2222592"/>
+          <a:ext cx="552496" cy="321311"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2325,7 +2340,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="6"/>
-      <c r="E5" t="s" s="5">
+      <c r="E5" t="s" s="12">
         <v>12</v>
       </c>
       <c r="F5" s="7"/>
@@ -2335,12 +2350,12 @@
       <c r="A6" t="s" s="3">
         <v>13</v>
       </c>
-      <c r="B6" s="12"/>
+      <c r="B6" s="13"/>
       <c r="C6" t="s" s="3">
         <v>14</v>
       </c>
       <c r="D6" s="4"/>
-      <c r="E6" t="s" s="5">
+      <c r="E6" t="s" s="12">
         <v>15</v>
       </c>
       <c r="F6" s="7"/>
@@ -2350,13 +2365,13 @@
       <c r="A7" t="s" s="3">
         <v>16</v>
       </c>
-      <c r="B7" s="12"/>
+      <c r="B7" s="13"/>
       <c r="C7" t="s" s="3">
         <v>17</v>
       </c>
       <c r="D7" s="4"/>
-      <c r="E7" t="s" s="11">
-        <v>4</v>
+      <c r="E7" t="s" s="12">
+        <v>18</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="8"/>
@@ -2366,60 +2381,70 @@
         <v>14</v>
       </c>
       <c r="B8" s="13"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="15"/>
-      <c r="E8" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="F8" s="13"/>
+      <c r="C8" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" t="s" s="12">
+        <v>20</v>
+      </c>
+      <c r="F8" s="7"/>
       <c r="G8" s="8"/>
     </row>
     <row r="9" ht="19.95" customHeight="1">
       <c r="A9" t="s" s="3">
         <v>17</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="15"/>
-      <c r="E9" t="s" s="3">
-        <v>17</v>
-      </c>
-      <c r="F9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="16"/>
+      <c r="E9" t="s" s="12">
+        <v>4</v>
+      </c>
+      <c r="F9" s="7"/>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" ht="19.15" customHeight="1">
-      <c r="A10" s="16"/>
-      <c r="B10" s="8"/>
+    <row r="10" ht="19.95" customHeight="1">
+      <c r="A10" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="B10" s="14"/>
       <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="8"/>
+      <c r="D10" s="16"/>
+      <c r="E10" t="s" s="12">
+        <v>14</v>
+      </c>
+      <c r="F10" s="7"/>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" ht="18.3" customHeight="1">
+    <row r="11" ht="19.95" customHeight="1">
       <c r="A11" s="17"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
+      <c r="D11" s="16"/>
+      <c r="E11" t="s" s="12">
+        <v>17</v>
+      </c>
+      <c r="F11" s="7"/>
       <c r="G11" s="8"/>
     </row>
-    <row r="12" ht="18.3" customHeight="1">
+    <row r="12" ht="19.95" customHeight="1">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
+      <c r="D12" s="16"/>
+      <c r="E12" t="s" s="12">
+        <v>19</v>
+      </c>
+      <c r="F12" s="7"/>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" ht="18.3" customHeight="1">
+    <row r="13" ht="19.15" customHeight="1">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
+      <c r="E13" s="18"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
     </row>
@@ -2428,7 +2453,7 @@
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
+      <c r="E14" s="19"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
     </row>
@@ -2437,70 +2462,70 @@
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
+      <c r="E15" s="19"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
     </row>
     <row r="16" ht="18.3" customHeight="1">
-      <c r="A16" s="17"/>
+      <c r="A16" s="19"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
+      <c r="E16" s="19"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
     </row>
     <row r="17" ht="18.3" customHeight="1">
-      <c r="A17" s="17"/>
+      <c r="A17" s="19"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
+      <c r="E17" s="19"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
     </row>
     <row r="18" ht="18.3" customHeight="1">
-      <c r="A18" s="17"/>
+      <c r="A18" s="19"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
+      <c r="E18" s="19"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
     </row>
     <row r="19" ht="18.3" customHeight="1">
-      <c r="A19" s="17"/>
+      <c r="A19" s="19"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
+      <c r="E19" s="19"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
     </row>
     <row r="20" ht="18.3" customHeight="1">
-      <c r="A20" s="17"/>
+      <c r="A20" s="19"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
+      <c r="E20" s="19"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
     </row>
     <row r="21" ht="18.3" customHeight="1">
-      <c r="A21" s="17"/>
+      <c r="A21" s="19"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
+      <c r="E21" s="19"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
     </row>
     <row r="22" ht="18.3" customHeight="1">
-      <c r="A22" s="17"/>
+      <c r="A22" s="19"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
+      <c r="E22" s="19"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
     </row>
@@ -2528,557 +2553,561 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.6" defaultRowHeight="23" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="3" width="19.6016" style="18" customWidth="1"/>
-    <col min="4" max="4" width="14.7969" style="18" customWidth="1"/>
-    <col min="5" max="5" width="38.8438" style="18" customWidth="1"/>
-    <col min="6" max="6" width="43.4453" style="18" customWidth="1"/>
-    <col min="7" max="7" width="19.6016" style="18" customWidth="1"/>
-    <col min="8" max="16384" width="19.6016" style="18" customWidth="1"/>
+    <col min="1" max="3" width="19.6016" style="20" customWidth="1"/>
+    <col min="4" max="4" width="14.7969" style="20" customWidth="1"/>
+    <col min="5" max="5" width="38.8438" style="20" customWidth="1"/>
+    <col min="6" max="6" width="43.4531" style="20" customWidth="1"/>
+    <col min="7" max="7" width="19.6016" style="20" customWidth="1"/>
+    <col min="8" max="16384" width="19.6016" style="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.65" customHeight="1">
-      <c r="A1" t="s" s="19">
+      <c r="A1" t="s" s="21">
+        <v>21</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+    </row>
+    <row r="2" ht="16.95" customHeight="1">
+      <c r="A2" t="s" s="23">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s" s="23">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s" s="23">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s" s="23">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s" s="23">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s" s="23">
+        <v>27</v>
+      </c>
+      <c r="G2" t="s" s="23">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" ht="16.95" customHeight="1">
+      <c r="A3" t="s" s="23">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s" s="23">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s" s="23">
+        <v>30</v>
+      </c>
+      <c r="D3" s="24"/>
+      <c r="E3" t="s" s="23">
+        <v>31</v>
+      </c>
+      <c r="F3" t="s" s="23">
+        <v>32</v>
+      </c>
+      <c r="G3" s="24"/>
+    </row>
+    <row r="4" ht="16.95" customHeight="1">
+      <c r="A4" t="s" s="23">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s" s="23">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s" s="23">
+        <v>35</v>
+      </c>
+      <c r="D4" s="25">
+        <v>50</v>
+      </c>
+      <c r="E4" t="s" s="23">
+        <v>36</v>
+      </c>
+      <c r="F4" s="26"/>
+      <c r="G4" s="24"/>
+    </row>
+    <row r="5" ht="16.95" customHeight="1">
+      <c r="A5" t="s" s="23">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s" s="23">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s" s="23">
+        <v>35</v>
+      </c>
+      <c r="D5" s="25">
+        <v>50</v>
+      </c>
+      <c r="E5" t="s" s="23">
+        <v>39</v>
+      </c>
+      <c r="F5" s="26"/>
+      <c r="G5" s="24"/>
+    </row>
+    <row r="6" ht="16.95" customHeight="1">
+      <c r="A6" t="s" s="23">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s" s="23">
+        <v>41</v>
+      </c>
+      <c r="C6" t="s" s="23">
+        <v>35</v>
+      </c>
+      <c r="D6" s="25">
+        <v>50</v>
+      </c>
+      <c r="E6" t="s" s="23">
+        <v>36</v>
+      </c>
+      <c r="F6" s="26"/>
+      <c r="G6" s="24"/>
+    </row>
+    <row r="7" ht="16.95" customHeight="1">
+      <c r="A7" t="s" s="23">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s" s="23">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s" s="23">
+        <v>35</v>
+      </c>
+      <c r="D7" s="25">
+        <v>50</v>
+      </c>
+      <c r="E7" t="s" s="23">
+        <v>36</v>
+      </c>
+      <c r="F7" t="s" s="23">
+        <v>44</v>
+      </c>
+      <c r="G7" s="24"/>
+    </row>
+    <row r="8" ht="16.95" customHeight="1">
+      <c r="A8" t="s" s="23">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s" s="23">
+        <v>45</v>
+      </c>
+      <c r="C8" t="s" s="23">
+        <v>46</v>
+      </c>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="24"/>
+    </row>
+    <row r="9" ht="16.95" customHeight="1">
+      <c r="A9" t="s" s="23">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s" s="23">
+        <v>47</v>
+      </c>
+      <c r="C9" t="s" s="23">
+        <v>46</v>
+      </c>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="24"/>
+    </row>
+    <row r="10" ht="16.95" customHeight="1">
+      <c r="A10" t="s" s="23">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s" s="23">
+        <v>48</v>
+      </c>
+      <c r="C10" t="s" s="23">
+        <v>46</v>
+      </c>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" t="s" s="23">
+        <v>49</v>
+      </c>
+      <c r="G10" s="24"/>
+    </row>
+    <row r="11" ht="16.65" customHeight="1">
+      <c r="A11" s="27"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="28"/>
+    </row>
+    <row r="12" ht="16.65" customHeight="1">
+      <c r="A12" t="s" s="29">
+        <v>50</v>
+      </c>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="31"/>
+    </row>
+    <row r="13" ht="16.95" customHeight="1">
+      <c r="A13" t="s" s="23">
+        <v>51</v>
+      </c>
+      <c r="B13" t="s" s="23">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s" s="23">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s" s="23">
+        <v>25</v>
+      </c>
+      <c r="E13" t="s" s="23">
+        <v>26</v>
+      </c>
+      <c r="F13" t="s" s="23">
+        <v>27</v>
+      </c>
+      <c r="G13" t="s" s="23">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" ht="16.95" customHeight="1">
+      <c r="A14" t="s" s="23">
+        <v>52</v>
+      </c>
+      <c r="B14" t="s" s="23">
+        <v>53</v>
+      </c>
+      <c r="C14" t="s" s="23">
+        <v>30</v>
+      </c>
+      <c r="D14" s="24"/>
+      <c r="E14" t="s" s="23">
+        <v>31</v>
+      </c>
+      <c r="F14" t="s" s="23">
+        <v>32</v>
+      </c>
+      <c r="G14" s="24"/>
+    </row>
+    <row r="15" ht="16.95" customHeight="1">
+      <c r="A15" t="s" s="23">
+        <v>54</v>
+      </c>
+      <c r="B15" t="s" s="23">
+        <v>55</v>
+      </c>
+      <c r="C15" t="s" s="23">
+        <v>35</v>
+      </c>
+      <c r="D15" s="25">
+        <v>50</v>
+      </c>
+      <c r="E15" t="s" s="23">
+        <v>36</v>
+      </c>
+      <c r="F15" s="26"/>
+      <c r="G15" s="24"/>
+    </row>
+    <row r="16" ht="16.95" customHeight="1">
+      <c r="A16" t="s" s="23">
+        <v>56</v>
+      </c>
+      <c r="B16" t="s" s="23">
+        <v>57</v>
+      </c>
+      <c r="C16" t="s" s="23">
+        <v>35</v>
+      </c>
+      <c r="D16" s="25">
+        <v>50</v>
+      </c>
+      <c r="E16" t="s" s="23">
+        <v>36</v>
+      </c>
+      <c r="F16" t="s" s="23">
+        <v>58</v>
+      </c>
+      <c r="G16" s="24"/>
+    </row>
+    <row r="17" ht="16.95" customHeight="1">
+      <c r="A17" t="s" s="23">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s" s="23">
+        <v>45</v>
+      </c>
+      <c r="C17" t="s" s="23">
+        <v>46</v>
+      </c>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="24"/>
+    </row>
+    <row r="18" ht="16.95" customHeight="1">
+      <c r="A18" t="s" s="23">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s" s="23">
+        <v>47</v>
+      </c>
+      <c r="C18" t="s" s="23">
+        <v>46</v>
+      </c>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="24"/>
+    </row>
+    <row r="19" ht="16.95" customHeight="1">
+      <c r="A19" t="s" s="23">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s" s="23">
+        <v>48</v>
+      </c>
+      <c r="C19" t="s" s="23">
+        <v>46</v>
+      </c>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" t="s" s="23">
+        <v>49</v>
+      </c>
+      <c r="G19" s="24"/>
+    </row>
+    <row r="20" ht="16.65" customHeight="1">
+      <c r="A20" s="27"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="28"/>
+    </row>
+    <row r="21" ht="16.65" customHeight="1">
+      <c r="A21" t="s" s="32">
+        <v>3</v>
+      </c>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="31"/>
+    </row>
+    <row r="22" ht="16.95" customHeight="1">
+      <c r="A22" t="s" s="23">
+        <v>51</v>
+      </c>
+      <c r="B22" t="s" s="23">
+        <v>23</v>
+      </c>
+      <c r="C22" t="s" s="23">
+        <v>24</v>
+      </c>
+      <c r="D22" t="s" s="23">
+        <v>25</v>
+      </c>
+      <c r="E22" t="s" s="23">
+        <v>26</v>
+      </c>
+      <c r="F22" t="s" s="23">
+        <v>27</v>
+      </c>
+      <c r="G22" t="s" s="23">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" ht="16.95" customHeight="1">
+      <c r="A23" t="s" s="23">
+        <v>6</v>
+      </c>
+      <c r="B23" t="s" s="23">
+        <v>59</v>
+      </c>
+      <c r="C23" t="s" s="23">
+        <v>30</v>
+      </c>
+      <c r="D23" s="24"/>
+      <c r="E23" t="s" s="23">
+        <v>31</v>
+      </c>
+      <c r="F23" t="s" s="23">
+        <v>32</v>
+      </c>
+      <c r="G23" s="24"/>
+    </row>
+    <row r="24" ht="16.95" customHeight="1">
+      <c r="A24" t="s" s="23">
+        <v>9</v>
+      </c>
+      <c r="B24" t="s" s="23">
+        <v>60</v>
+      </c>
+      <c r="C24" t="s" s="23">
+        <v>61</v>
+      </c>
+      <c r="D24" s="24"/>
+      <c r="E24" t="s" s="23">
+        <v>36</v>
+      </c>
+      <c r="F24" s="26"/>
+      <c r="G24" s="24"/>
+    </row>
+    <row r="25" ht="16.95" customHeight="1">
+      <c r="A25" t="s" s="23">
+        <v>12</v>
+      </c>
+      <c r="B25" t="s" s="23">
+        <v>62</v>
+      </c>
+      <c r="C25" t="s" s="23">
+        <v>35</v>
+      </c>
+      <c r="D25" s="33">
+        <v>10</v>
+      </c>
+      <c r="E25" t="s" s="23">
+        <v>36</v>
+      </c>
+      <c r="F25" t="s" s="23">
+        <v>63</v>
+      </c>
+      <c r="G25" s="24"/>
+    </row>
+    <row r="26" ht="16.95" customHeight="1">
+      <c r="A26" t="s" s="23">
+        <v>15</v>
+      </c>
+      <c r="B26" t="s" s="23">
+        <v>53</v>
+      </c>
+      <c r="C26" t="s" s="23">
+        <v>30</v>
+      </c>
+      <c r="D26" s="24"/>
+      <c r="E26" t="s" s="23">
+        <v>64</v>
+      </c>
+      <c r="F26" t="s" s="23">
+        <v>65</v>
+      </c>
+      <c r="G26" s="24"/>
+    </row>
+    <row r="27" ht="16.95" customHeight="1">
+      <c r="A27" t="s" s="23">
         <v>18</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-    </row>
-    <row r="2" ht="16.95" customHeight="1">
-      <c r="A2" t="s" s="21">
+      <c r="B27" t="s" s="23">
+        <v>66</v>
+      </c>
+      <c r="C27" t="s" s="23">
+        <v>35</v>
+      </c>
+      <c r="D27" s="25">
+        <v>50</v>
+      </c>
+      <c r="E27" s="24"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="24"/>
+    </row>
+    <row r="28" ht="16.95" customHeight="1">
+      <c r="A28" t="s" s="23">
+        <v>20</v>
+      </c>
+      <c r="B28" t="s" s="23">
+        <v>67</v>
+      </c>
+      <c r="C28" t="s" s="23">
+        <v>68</v>
+      </c>
+      <c r="D28" t="s" s="34">
+        <v>69</v>
+      </c>
+      <c r="E28" t="s" s="23">
+        <v>36</v>
+      </c>
+      <c r="F28" s="26"/>
+      <c r="G28" s="24"/>
+    </row>
+    <row r="29" ht="16.95" customHeight="1">
+      <c r="A29" t="s" s="23">
+        <v>4</v>
+      </c>
+      <c r="B29" t="s" s="23">
+        <v>29</v>
+      </c>
+      <c r="C29" t="s" s="23">
+        <v>30</v>
+      </c>
+      <c r="D29" s="24"/>
+      <c r="E29" t="s" s="23">
+        <v>70</v>
+      </c>
+      <c r="F29" t="s" s="23">
+        <v>65</v>
+      </c>
+      <c r="G29" s="24"/>
+    </row>
+    <row r="30" ht="16.95" customHeight="1">
+      <c r="A30" t="s" s="23">
+        <v>14</v>
+      </c>
+      <c r="B30" t="s" s="23">
+        <v>45</v>
+      </c>
+      <c r="C30" t="s" s="23">
+        <v>46</v>
+      </c>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="24"/>
+    </row>
+    <row r="31" ht="16.95" customHeight="1">
+      <c r="A31" t="s" s="23">
+        <v>17</v>
+      </c>
+      <c r="B31" t="s" s="23">
+        <v>47</v>
+      </c>
+      <c r="C31" t="s" s="23">
+        <v>46</v>
+      </c>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="24"/>
+    </row>
+    <row r="32" ht="16.95" customHeight="1">
+      <c r="A32" t="s" s="23">
         <v>19</v>
       </c>
-      <c r="B2" t="s" s="21">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s" s="21">
-        <v>21</v>
-      </c>
-      <c r="D2" t="s" s="21">
-        <v>22</v>
-      </c>
-      <c r="E2" t="s" s="21">
-        <v>23</v>
-      </c>
-      <c r="F2" t="s" s="21">
-        <v>24</v>
-      </c>
-      <c r="G2" t="s" s="21">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" ht="16.95" customHeight="1">
-      <c r="A3" t="s" s="21">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s" s="21">
-        <v>26</v>
-      </c>
-      <c r="C3" t="s" s="21">
-        <v>27</v>
-      </c>
-      <c r="D3" s="22"/>
-      <c r="E3" t="s" s="21">
-        <v>28</v>
-      </c>
-      <c r="F3" t="s" s="21">
-        <v>29</v>
-      </c>
-      <c r="G3" s="22"/>
-    </row>
-    <row r="4" ht="16.95" customHeight="1">
-      <c r="A4" t="s" s="21">
-        <v>30</v>
-      </c>
-      <c r="B4" t="s" s="21">
-        <v>31</v>
-      </c>
-      <c r="C4" t="s" s="21">
-        <v>32</v>
-      </c>
-      <c r="D4" s="23">
-        <v>255</v>
-      </c>
-      <c r="E4" t="s" s="21">
-        <v>33</v>
-      </c>
-      <c r="F4" s="24"/>
-      <c r="G4" s="22"/>
-    </row>
-    <row r="5" ht="16.95" customHeight="1">
-      <c r="A5" t="s" s="21">
-        <v>34</v>
-      </c>
-      <c r="B5" t="s" s="21">
-        <v>35</v>
-      </c>
-      <c r="C5" t="s" s="21">
-        <v>32</v>
-      </c>
-      <c r="D5" s="23">
-        <v>255</v>
-      </c>
-      <c r="E5" t="s" s="21">
-        <v>36</v>
-      </c>
-      <c r="F5" s="24"/>
-      <c r="G5" s="22"/>
-    </row>
-    <row r="6" ht="16.95" customHeight="1">
-      <c r="A6" t="s" s="21">
-        <v>37</v>
-      </c>
-      <c r="B6" t="s" s="21">
-        <v>38</v>
-      </c>
-      <c r="C6" t="s" s="21">
-        <v>32</v>
-      </c>
-      <c r="D6" s="23">
-        <v>255</v>
-      </c>
-      <c r="E6" t="s" s="21">
-        <v>33</v>
-      </c>
-      <c r="F6" s="24"/>
-      <c r="G6" s="22"/>
-    </row>
-    <row r="7" ht="16.95" customHeight="1">
-      <c r="A7" t="s" s="21">
-        <v>39</v>
-      </c>
-      <c r="B7" t="s" s="21">
-        <v>40</v>
-      </c>
-      <c r="C7" t="s" s="21">
-        <v>32</v>
-      </c>
-      <c r="D7" s="23">
-        <v>50</v>
-      </c>
-      <c r="E7" t="s" s="21">
-        <v>33</v>
-      </c>
-      <c r="F7" t="s" s="21">
-        <v>41</v>
-      </c>
-      <c r="G7" s="22"/>
-    </row>
-    <row r="8" ht="16.95" customHeight="1">
-      <c r="A8" t="s" s="21">
-        <v>42</v>
-      </c>
-      <c r="B8" t="s" s="21">
-        <v>43</v>
-      </c>
-      <c r="C8" t="s" s="21">
-        <v>44</v>
-      </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="22"/>
-    </row>
-    <row r="9" ht="16.95" customHeight="1">
-      <c r="A9" t="s" s="21">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s" s="21">
-        <v>45</v>
-      </c>
-      <c r="C9" t="s" s="21">
-        <v>44</v>
-      </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="22"/>
-    </row>
-    <row r="10" ht="16.95" customHeight="1">
-      <c r="A10" t="s" s="21">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s" s="21">
+      <c r="B32" t="s" s="23">
+        <v>48</v>
+      </c>
+      <c r="C32" t="s" s="23">
         <v>46</v>
       </c>
-      <c r="C10" t="s" s="21">
-        <v>44</v>
-      </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" t="s" s="21">
-        <v>47</v>
-      </c>
-      <c r="G10" s="22"/>
-    </row>
-    <row r="11" ht="16.65" customHeight="1">
-      <c r="A11" s="25"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="26"/>
-    </row>
-    <row r="12" ht="16.65" customHeight="1">
-      <c r="A12" t="s" s="27">
-        <v>48</v>
-      </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="29"/>
-    </row>
-    <row r="13" ht="16.95" customHeight="1">
-      <c r="A13" t="s" s="21">
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" t="s" s="23">
         <v>49</v>
       </c>
-      <c r="B13" s="24"/>
-      <c r="C13" t="s" s="21">
-        <v>21</v>
-      </c>
-      <c r="D13" t="s" s="21">
-        <v>22</v>
-      </c>
-      <c r="E13" t="s" s="21">
-        <v>23</v>
-      </c>
-      <c r="F13" t="s" s="21">
-        <v>24</v>
-      </c>
-      <c r="G13" t="s" s="21">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" ht="16.95" customHeight="1">
-      <c r="A14" t="s" s="21">
-        <v>50</v>
-      </c>
-      <c r="B14" t="s" s="21">
-        <v>51</v>
-      </c>
-      <c r="C14" t="s" s="21">
-        <v>27</v>
-      </c>
-      <c r="D14" s="22"/>
-      <c r="E14" t="s" s="21">
-        <v>28</v>
-      </c>
-      <c r="F14" t="s" s="21">
-        <v>29</v>
-      </c>
-      <c r="G14" s="22"/>
-    </row>
-    <row r="15" ht="16.95" customHeight="1">
-      <c r="A15" t="s" s="21">
-        <v>52</v>
-      </c>
-      <c r="B15" t="s" s="21">
-        <v>53</v>
-      </c>
-      <c r="C15" t="s" s="21">
-        <v>32</v>
-      </c>
-      <c r="D15" s="23">
-        <v>255</v>
-      </c>
-      <c r="E15" t="s" s="21">
-        <v>33</v>
-      </c>
-      <c r="F15" s="24"/>
-      <c r="G15" s="22"/>
-    </row>
-    <row r="16" ht="16.95" customHeight="1">
-      <c r="A16" t="s" s="21">
-        <v>54</v>
-      </c>
-      <c r="B16" t="s" s="21">
-        <v>55</v>
-      </c>
-      <c r="C16" t="s" s="21">
-        <v>32</v>
-      </c>
-      <c r="D16" s="23">
-        <v>50</v>
-      </c>
-      <c r="E16" t="s" s="21">
-        <v>33</v>
-      </c>
-      <c r="F16" t="s" s="21">
-        <v>56</v>
-      </c>
-      <c r="G16" s="22"/>
-    </row>
-    <row r="17" ht="16.95" customHeight="1">
-      <c r="A17" t="s" s="21">
-        <v>42</v>
-      </c>
-      <c r="B17" t="s" s="21">
-        <v>43</v>
-      </c>
-      <c r="C17" t="s" s="21">
-        <v>44</v>
-      </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="22"/>
-    </row>
-    <row r="18" ht="16.95" customHeight="1">
-      <c r="A18" t="s" s="21">
-        <v>14</v>
-      </c>
-      <c r="B18" t="s" s="21">
-        <v>45</v>
-      </c>
-      <c r="C18" t="s" s="21">
-        <v>44</v>
-      </c>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="22"/>
-    </row>
-    <row r="19" ht="16.95" customHeight="1">
-      <c r="A19" t="s" s="21">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s" s="21">
-        <v>46</v>
-      </c>
-      <c r="C19" t="s" s="21">
-        <v>44</v>
-      </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" t="s" s="21">
-        <v>47</v>
-      </c>
-      <c r="G19" s="22"/>
-    </row>
-    <row r="20" ht="16.65" customHeight="1">
-      <c r="A20" s="25"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="26"/>
-    </row>
-    <row r="21" ht="16.65" customHeight="1">
-      <c r="A21" t="s" s="30">
-        <v>3</v>
-      </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="29"/>
-    </row>
-    <row r="22" ht="16.95" customHeight="1">
-      <c r="A22" t="s" s="21">
-        <v>49</v>
-      </c>
-      <c r="B22" s="24"/>
-      <c r="C22" t="s" s="21">
-        <v>21</v>
-      </c>
-      <c r="D22" t="s" s="21">
-        <v>22</v>
-      </c>
-      <c r="E22" t="s" s="21">
-        <v>23</v>
-      </c>
-      <c r="F22" t="s" s="21">
-        <v>24</v>
-      </c>
-      <c r="G22" t="s" s="21">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" ht="16.95" customHeight="1">
-      <c r="A23" t="s" s="21">
-        <v>57</v>
-      </c>
-      <c r="B23" t="s" s="21">
-        <v>58</v>
-      </c>
-      <c r="C23" t="s" s="21">
-        <v>27</v>
-      </c>
-      <c r="D23" s="22"/>
-      <c r="E23" t="s" s="21">
-        <v>28</v>
-      </c>
-      <c r="F23" t="s" s="21">
-        <v>29</v>
-      </c>
-      <c r="G23" s="22"/>
-    </row>
-    <row r="24" ht="16.95" customHeight="1">
-      <c r="A24" t="s" s="21">
-        <v>9</v>
-      </c>
-      <c r="B24" t="s" s="21">
-        <v>59</v>
-      </c>
-      <c r="C24" t="s" s="21">
-        <v>60</v>
-      </c>
-      <c r="D24" s="22"/>
-      <c r="E24" t="s" s="21">
-        <v>33</v>
-      </c>
-      <c r="F24" s="24"/>
-      <c r="G24" s="22"/>
-    </row>
-    <row r="25" ht="16.95" customHeight="1">
-      <c r="A25" t="s" s="21">
-        <v>61</v>
-      </c>
-      <c r="B25" t="s" s="21">
-        <v>62</v>
-      </c>
-      <c r="C25" t="s" s="21">
-        <v>32</v>
-      </c>
-      <c r="D25" s="31">
-        <v>10</v>
-      </c>
-      <c r="E25" t="s" s="21">
-        <v>33</v>
-      </c>
-      <c r="F25" t="s" s="21">
-        <v>63</v>
-      </c>
-      <c r="G25" s="22"/>
-    </row>
-    <row r="26" ht="16.95" customHeight="1">
-      <c r="A26" t="s" s="21">
-        <v>64</v>
-      </c>
-      <c r="B26" t="s" s="21">
-        <v>51</v>
-      </c>
-      <c r="C26" t="s" s="21">
-        <v>27</v>
-      </c>
-      <c r="D26" s="22"/>
-      <c r="E26" t="s" s="21">
-        <v>65</v>
-      </c>
-      <c r="F26" t="s" s="21">
-        <v>66</v>
-      </c>
-      <c r="G26" s="22"/>
-    </row>
-    <row r="27" ht="16.95" customHeight="1">
-      <c r="A27" t="s" s="21">
-        <v>67</v>
-      </c>
-      <c r="B27" t="s" s="21">
-        <v>68</v>
-      </c>
-      <c r="C27" t="s" s="21">
-        <v>32</v>
-      </c>
-      <c r="D27" s="23">
-        <v>255</v>
-      </c>
-      <c r="E27" s="22"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="22"/>
-    </row>
-    <row r="28" ht="16.95" customHeight="1">
-      <c r="A28" t="s" s="21">
-        <v>15</v>
-      </c>
-      <c r="B28" t="s" s="21">
-        <v>69</v>
-      </c>
-      <c r="C28" t="s" s="21">
-        <v>70</v>
-      </c>
-      <c r="D28" t="s" s="32">
-        <v>71</v>
-      </c>
-      <c r="E28" t="s" s="21">
-        <v>33</v>
-      </c>
-      <c r="F28" s="24"/>
-      <c r="G28" s="22"/>
-    </row>
-    <row r="29" ht="16.95" customHeight="1">
-      <c r="A29" t="s" s="21">
-        <v>4</v>
-      </c>
-      <c r="B29" t="s" s="21">
-        <v>26</v>
-      </c>
-      <c r="C29" t="s" s="21">
-        <v>27</v>
-      </c>
-      <c r="D29" s="22"/>
-      <c r="E29" t="s" s="21">
-        <v>72</v>
-      </c>
-      <c r="F29" t="s" s="21">
-        <v>66</v>
-      </c>
-      <c r="G29" s="22"/>
-    </row>
-    <row r="30" ht="16.95" customHeight="1">
-      <c r="A30" t="s" s="21">
-        <v>42</v>
-      </c>
-      <c r="B30" t="s" s="21">
-        <v>43</v>
-      </c>
-      <c r="C30" t="s" s="21">
-        <v>44</v>
-      </c>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="22"/>
-    </row>
-    <row r="31" ht="16.95" customHeight="1">
-      <c r="A31" t="s" s="21">
-        <v>14</v>
-      </c>
-      <c r="B31" t="s" s="21">
-        <v>45</v>
-      </c>
-      <c r="C31" t="s" s="21">
-        <v>44</v>
-      </c>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="22"/>
-    </row>
-    <row r="32" ht="16.95" customHeight="1">
-      <c r="A32" t="s" s="21">
-        <v>17</v>
-      </c>
-      <c r="B32" t="s" s="21">
-        <v>46</v>
-      </c>
-      <c r="C32" t="s" s="21">
-        <v>44</v>
-      </c>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" t="s" s="21">
-        <v>47</v>
-      </c>
-      <c r="G32" s="22"/>
+      <c r="G32" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>

--- a/設計（ER図、テーブル定義書）.xlsx
+++ b/設計（ER図、テーブル定義書）.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="70">
   <si>
     <t>ER図</t>
   </si>
@@ -164,9 +164,6 @@
     <t>論理削除用</t>
   </si>
   <si>
-    <t>categori</t>
-  </si>
-  <si>
     <t>項目名</t>
   </si>
   <si>
@@ -206,7 +203,7 @@
     <t>収入または支出</t>
   </si>
   <si>
-    <t>FOREIGN KEY (categori)</t>
+    <t>FOREIGN KEY (category)</t>
   </si>
   <si>
     <t>外部キー</t>
@@ -2750,7 +2747,7 @@
     </row>
     <row r="12" ht="16.65" customHeight="1">
       <c r="A12" t="s" s="29">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="B12" s="30"/>
       <c r="C12" s="30"/>
@@ -2761,7 +2758,7 @@
     </row>
     <row r="13" ht="16.95" customHeight="1">
       <c r="A13" t="s" s="23">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s" s="23">
         <v>23</v>
@@ -2784,10 +2781,10 @@
     </row>
     <row r="14" ht="16.95" customHeight="1">
       <c r="A14" t="s" s="23">
+        <v>51</v>
+      </c>
+      <c r="B14" t="s" s="23">
         <v>52</v>
-      </c>
-      <c r="B14" t="s" s="23">
-        <v>53</v>
       </c>
       <c r="C14" t="s" s="23">
         <v>30</v>
@@ -2803,10 +2800,10 @@
     </row>
     <row r="15" ht="16.95" customHeight="1">
       <c r="A15" t="s" s="23">
+        <v>53</v>
+      </c>
+      <c r="B15" t="s" s="23">
         <v>54</v>
-      </c>
-      <c r="B15" t="s" s="23">
-        <v>55</v>
       </c>
       <c r="C15" t="s" s="23">
         <v>35</v>
@@ -2822,10 +2819,10 @@
     </row>
     <row r="16" ht="16.95" customHeight="1">
       <c r="A16" t="s" s="23">
+        <v>55</v>
+      </c>
+      <c r="B16" t="s" s="23">
         <v>56</v>
-      </c>
-      <c r="B16" t="s" s="23">
-        <v>57</v>
       </c>
       <c r="C16" t="s" s="23">
         <v>35</v>
@@ -2837,7 +2834,7 @@
         <v>36</v>
       </c>
       <c r="F16" t="s" s="23">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G16" s="24"/>
     </row>
@@ -2910,7 +2907,7 @@
     </row>
     <row r="22" ht="16.95" customHeight="1">
       <c r="A22" t="s" s="23">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B22" t="s" s="23">
         <v>23</v>
@@ -2936,7 +2933,7 @@
         <v>6</v>
       </c>
       <c r="B23" t="s" s="23">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C23" t="s" s="23">
         <v>30</v>
@@ -2955,10 +2952,10 @@
         <v>9</v>
       </c>
       <c r="B24" t="s" s="23">
+        <v>59</v>
+      </c>
+      <c r="C24" t="s" s="23">
         <v>60</v>
-      </c>
-      <c r="C24" t="s" s="23">
-        <v>61</v>
       </c>
       <c r="D24" s="24"/>
       <c r="E24" t="s" s="23">
@@ -2972,7 +2969,7 @@
         <v>12</v>
       </c>
       <c r="B25" t="s" s="23">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C25" t="s" s="23">
         <v>35</v>
@@ -2984,7 +2981,7 @@
         <v>36</v>
       </c>
       <c r="F25" t="s" s="23">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G25" s="24"/>
     </row>
@@ -2993,17 +2990,17 @@
         <v>15</v>
       </c>
       <c r="B26" t="s" s="23">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C26" t="s" s="23">
         <v>30</v>
       </c>
       <c r="D26" s="24"/>
       <c r="E26" t="s" s="23">
+        <v>63</v>
+      </c>
+      <c r="F26" t="s" s="23">
         <v>64</v>
-      </c>
-      <c r="F26" t="s" s="23">
-        <v>65</v>
       </c>
       <c r="G26" s="24"/>
     </row>
@@ -3012,7 +3009,7 @@
         <v>18</v>
       </c>
       <c r="B27" t="s" s="23">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C27" t="s" s="23">
         <v>35</v>
@@ -3029,13 +3026,13 @@
         <v>20</v>
       </c>
       <c r="B28" t="s" s="23">
+        <v>66</v>
+      </c>
+      <c r="C28" t="s" s="23">
         <v>67</v>
       </c>
-      <c r="C28" t="s" s="23">
+      <c r="D28" t="s" s="34">
         <v>68</v>
-      </c>
-      <c r="D28" t="s" s="34">
-        <v>69</v>
       </c>
       <c r="E28" t="s" s="23">
         <v>36</v>
@@ -3055,10 +3052,10 @@
       </c>
       <c r="D29" s="24"/>
       <c r="E29" t="s" s="23">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F29" t="s" s="23">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G29" s="24"/>
     </row>
